--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF2FDD1-AEF0-C64C-86BC-3157AF975544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A71FFDC-0A08-604D-803C-81C23FE2962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7040" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="33">
   <si>
     <t>DATA</t>
   </si>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF9FDCF-EF68-8E4F-B932-D74FD0632ABD}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -580,7 +580,7 @@
     </row>
     <row r="2" spans="1:8" ht="23">
       <c r="A2" s="2">
-        <v>45694</v>
+        <v>45700</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E2" s="3">
         <v>84</v>
@@ -598,27 +598,27 @@
         <v>10</v>
       </c>
       <c r="G2" s="3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3">
-        <v>48</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23">
       <c r="A3" s="2">
-        <v>45692</v>
+        <v>45694</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>7</v>
-      </c>
-      <c r="E3" s="5">
-        <v>6056.25</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>84</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -627,7 +627,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="3">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23">
@@ -635,22 +635,22 @@
         <v>45692</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3">
-        <v>109.3</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>6056.25</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H4" s="3">
         <v>40</v>
@@ -658,19 +658,19 @@
     </row>
     <row r="5" spans="1:8" ht="23">
       <c r="A5" s="2">
-        <v>45691</v>
+        <v>45692</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="3">
-        <v>16</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5962.75</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>109.3</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>10</v>
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23">
@@ -687,22 +687,22 @@
         <v>45691</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>57</v>
-      </c>
-      <c r="E6" s="3">
-        <v>162.96</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5962.75</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3">
         <v>20</v>
@@ -710,19 +710,19 @@
     </row>
     <row r="7" spans="1:8" ht="23">
       <c r="A7" s="2">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
+      <c r="C7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="3">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3">
-        <v>78.3</v>
+        <v>162.96</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -731,12 +731,12 @@
         <v>28</v>
       </c>
       <c r="H7" s="3">
-        <v>77</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="23">
       <c r="A8" s="2">
-        <v>45685</v>
+        <v>45688</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -745,10 +745,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>106</v>
+        <v>78.3</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -757,24 +757,24 @@
         <v>28</v>
       </c>
       <c r="H8" s="3">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23">
       <c r="A9" s="2">
-        <v>45684</v>
+        <v>45685</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="3">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -783,24 +783,24 @@
         <v>28</v>
       </c>
       <c r="H9" s="3">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23">
       <c r="A10" s="2">
-        <v>45679</v>
+        <v>45684</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
+      <c r="C10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3">
-        <v>84.75</v>
+        <v>127</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -809,24 +809,24 @@
         <v>28</v>
       </c>
       <c r="H10" s="3">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="23">
       <c r="A11" s="2">
-        <v>45674</v>
+        <v>45679</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5">
-        <v>6041.86</v>
+        <v>16</v>
+      </c>
+      <c r="E11" s="3">
+        <v>84.75</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="3">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23">
@@ -843,22 +843,22 @@
         <v>45674</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>60</v>
-      </c>
-      <c r="E12" s="3">
-        <v>127.53</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6041.86</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H12" s="3">
         <v>60</v>
@@ -869,16 +869,16 @@
         <v>45674</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D13" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3">
-        <v>64.75</v>
+        <v>127.53</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
@@ -887,24 +887,24 @@
         <v>18</v>
       </c>
       <c r="H13" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="23">
       <c r="A14" s="2">
-        <v>45672</v>
+        <v>45674</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
+      <c r="C14" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="3">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="E14" s="3">
-        <v>85</v>
+        <v>64.75</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -913,7 +913,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="3">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="23">
@@ -921,16 +921,16 @@
         <v>45672</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>5978</v>
+        <v>15</v>
+      </c>
+      <c r="E15" s="3">
+        <v>85</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -939,12 +939,12 @@
         <v>18</v>
       </c>
       <c r="H15" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="23">
       <c r="A16" s="2">
-        <v>45670</v>
+        <v>45672</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -953,16 +953,16 @@
         <v>12</v>
       </c>
       <c r="D16" s="3">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5">
-        <v>5839.05</v>
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>5978</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H16" s="3">
         <v>40</v>
@@ -973,22 +973,22 @@
         <v>45670</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>40</v>
-      </c>
-      <c r="E17" s="3">
-        <v>153.19999999999999</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="5">
+        <v>5839.05</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="3">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H17" s="3">
         <v>40</v>
@@ -999,16 +999,16 @@
         <v>45670</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D18" s="3">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E18" s="3">
-        <v>239.51</v>
+        <v>153.19999999999999</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -1017,12 +1017,12 @@
         <v>34</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="23">
       <c r="A19" s="2">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -1031,10 +1031,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="3">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="E19" s="3">
-        <v>211.75</v>
+        <v>239.51</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -1043,12 +1043,12 @@
         <v>34</v>
       </c>
       <c r="H19" s="3">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="23">
       <c r="A20" s="2">
-        <v>45664</v>
+        <v>45667</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>15</v>
@@ -1057,10 +1057,10 @@
         <v>12</v>
       </c>
       <c r="D20" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E20" s="3">
-        <v>176</v>
+        <v>211.75</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>10</v>
@@ -1069,24 +1069,24 @@
         <v>34</v>
       </c>
       <c r="H20" s="3">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="23">
       <c r="A21" s="2">
-        <v>45663</v>
+        <v>45664</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="3">
-        <v>28</v>
-      </c>
-      <c r="E21" s="7">
-        <v>6057</v>
+        <v>17</v>
+      </c>
+      <c r="E21" s="3">
+        <v>176</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1095,7 +1095,7 @@
         <v>34</v>
       </c>
       <c r="H21" s="3">
-        <v>80</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="23">
@@ -1103,22 +1103,22 @@
         <v>45663</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="3">
-        <v>68</v>
-      </c>
-      <c r="E22" s="3">
-        <v>119.8</v>
+        <v>28</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6057</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="3">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="H22" s="3">
         <v>80</v>
@@ -1126,28 +1126,28 @@
     </row>
     <row r="23" spans="1:8" ht="23">
       <c r="A23" s="2">
-        <v>45646</v>
+        <v>45663</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D23" s="3">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="E23" s="3">
-        <v>246.42</v>
+        <v>119.8</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H23" s="3">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="23">
@@ -1155,16 +1155,16 @@
         <v>45646</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="3">
-        <v>7</v>
-      </c>
-      <c r="E24" s="7">
-        <v>5892</v>
+        <v>12</v>
+      </c>
+      <c r="E24" s="3">
+        <v>246.42</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>10</v>
@@ -1173,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="3">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="23">
@@ -1181,22 +1181,22 @@
         <v>45646</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D25" s="3">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5">
-        <v>5826.5</v>
+        <v>7</v>
+      </c>
+      <c r="E25" s="7">
+        <v>5892</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H25" s="3">
         <v>24</v>
@@ -1204,25 +1204,25 @@
     </row>
     <row r="26" spans="1:8" ht="23">
       <c r="A26" s="2">
-        <v>45645</v>
+        <v>45646</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>92</v>
-      </c>
-      <c r="E26" s="3">
-        <v>212</v>
+        <v>12</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5826.5</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>24</v>
@@ -1233,16 +1233,16 @@
         <v>45645</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3">
-        <v>28</v>
-      </c>
-      <c r="E27" s="7">
-        <v>5876</v>
+        <v>92</v>
+      </c>
+      <c r="E27" s="3">
+        <v>212</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>10</v>
@@ -1251,30 +1251,30 @@
         <v>12</v>
       </c>
       <c r="H27" s="3">
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="23">
       <c r="A28" s="2">
-        <v>45630</v>
+        <v>45645</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D28" s="3">
-        <v>11</v>
-      </c>
-      <c r="E28" s="3">
-        <v>108</v>
+        <v>28</v>
+      </c>
+      <c r="E28" s="7">
+        <v>5876</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="3">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H28" s="3">
         <v>116</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="29" spans="1:8" ht="23">
       <c r="A29" s="2">
-        <v>45625</v>
+        <v>45630</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>15</v>
@@ -1291,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="3">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E29" s="3">
-        <v>122.25</v>
+        <v>108</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1303,12 +1303,12 @@
         <v>40</v>
       </c>
       <c r="H29" s="3">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="23">
       <c r="A30" s="2">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>15</v>
@@ -1317,10 +1317,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E30" s="3">
-        <v>133.5</v>
+        <v>122.25</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>10</v>
@@ -1329,12 +1329,12 @@
         <v>40</v>
       </c>
       <c r="H30" s="3">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="23">
       <c r="A31" s="2">
-        <v>45617</v>
+        <v>45622</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>15</v>
@@ -1343,10 +1343,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E31" s="3">
-        <v>174</v>
+        <v>133.5</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>10</v>
@@ -1355,24 +1355,24 @@
         <v>40</v>
       </c>
       <c r="H31" s="3">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23">
       <c r="A32" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="3">
-        <v>35</v>
-      </c>
-      <c r="E32" s="5">
-        <v>5925.25</v>
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
+        <v>174</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>10</v>
@@ -1381,7 +1381,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="3">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="23">
@@ -1389,22 +1389,22 @@
         <v>45615</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="3">
-        <v>80</v>
-      </c>
-      <c r="E33" s="3">
-        <v>186</v>
+        <v>35</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5925.25</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="3">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H33" s="3">
         <v>80</v>
@@ -1415,16 +1415,16 @@
         <v>45615</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E34" s="3">
-        <v>14.5</v>
+        <v>186</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>10</v>
@@ -1433,12 +1433,12 @@
         <v>5</v>
       </c>
       <c r="H34" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="23">
       <c r="A35" s="2">
-        <v>45611</v>
+        <v>45615</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>16</v>
@@ -1447,10 +1447,10 @@
         <v>12</v>
       </c>
       <c r="D35" s="3">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E35" s="3">
-        <v>19.5</v>
+        <v>14.5</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>10</v>
@@ -1459,24 +1459,24 @@
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="23">
       <c r="A36" s="2">
-        <v>45603</v>
+        <v>45611</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="3">
-        <v>3</v>
-      </c>
-      <c r="E36" s="5">
-        <v>5994.25</v>
+        <v>18</v>
+      </c>
+      <c r="E36" s="3">
+        <v>19.5</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>10</v>
@@ -1485,12 +1485,12 @@
         <v>5</v>
       </c>
       <c r="H36" s="3">
-        <v>64</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="23">
       <c r="A37" s="2">
-        <v>45602</v>
+        <v>45603</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>14</v>
@@ -1499,16 +1499,16 @@
         <v>12</v>
       </c>
       <c r="D37" s="3">
-        <v>6</v>
-      </c>
-      <c r="E37" s="7">
-        <v>5917</v>
+        <v>3</v>
+      </c>
+      <c r="E37" s="5">
+        <v>5994.25</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H37" s="3">
         <v>64</v>
@@ -1516,25 +1516,25 @@
     </row>
     <row r="38" spans="1:8" ht="23">
       <c r="A38" s="2">
-        <v>45601</v>
+        <v>45602</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D38" s="3">
-        <v>12</v>
-      </c>
-      <c r="E38" s="3">
-        <v>53.5</v>
+        <v>6</v>
+      </c>
+      <c r="E38" s="7">
+        <v>5917</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H38" s="3">
         <v>64</v>
@@ -1542,19 +1542,19 @@
     </row>
     <row r="39" spans="1:8" ht="23">
       <c r="A39" s="2">
-        <v>45596</v>
+        <v>45601</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>12</v>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D39" s="3">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E39" s="3">
-        <v>76.7</v>
+        <v>53.5</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>10</v>
@@ -1563,24 +1563,24 @@
         <v>14</v>
       </c>
       <c r="H39" s="3">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="23">
       <c r="A40" s="2">
-        <v>45590</v>
+        <v>45596</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3">
-        <v>3</v>
-      </c>
-      <c r="E40" s="7">
-        <v>5890</v>
+        <v>27</v>
+      </c>
+      <c r="E40" s="3">
+        <v>76.7</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>10</v>
@@ -1589,30 +1589,30 @@
         <v>14</v>
       </c>
       <c r="H40" s="3">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="23">
       <c r="A41" s="2">
-        <v>45589</v>
+        <v>45590</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3">
-        <v>13</v>
-      </c>
-      <c r="E41" s="3">
-        <v>58.75</v>
+        <v>3</v>
+      </c>
+      <c r="E41" s="7">
+        <v>5890</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H41" s="3">
         <v>79</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="42" spans="1:8" ht="23">
       <c r="A42" s="2">
-        <v>45579</v>
+        <v>45589</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="3">
-        <v>3</v>
-      </c>
-      <c r="E42" s="7">
-        <v>5900</v>
+        <v>13</v>
+      </c>
+      <c r="E42" s="3">
+        <v>58.75</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -1641,30 +1641,30 @@
         <v>17</v>
       </c>
       <c r="H42" s="3">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="23">
       <c r="A43" s="2">
-        <v>45576</v>
+        <v>45579</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D43" s="3">
-        <v>7</v>
-      </c>
-      <c r="E43" s="3">
-        <v>66</v>
+        <v>3</v>
+      </c>
+      <c r="E43" s="7">
+        <v>5900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="3">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H43" s="3">
         <v>92</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="44" spans="1:8" ht="23">
       <c r="A44" s="2">
-        <v>45574</v>
+        <v>45576</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>16</v>
@@ -1681,10 +1681,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E44" s="3">
-        <v>73.75</v>
+        <v>66</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>10</v>
@@ -1693,12 +1693,12 @@
         <v>20</v>
       </c>
       <c r="H44" s="3">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="23">
       <c r="A45" s="2">
-        <v>45573</v>
+        <v>45574</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>16</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>84</v>
+        <v>73.75</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>10</v>
@@ -1719,24 +1719,24 @@
         <v>20</v>
       </c>
       <c r="H45" s="3">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="23">
       <c r="A46" s="2">
-        <v>45566</v>
+        <v>45573</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D46" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E46" s="3">
-        <v>96.5</v>
+        <v>84</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>10</v>
@@ -1745,24 +1745,24 @@
         <v>20</v>
       </c>
       <c r="H46" s="3">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="23">
       <c r="A47" s="2">
-        <v>45562</v>
+        <v>45566</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="3">
         <v>16</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="3">
-        <v>11</v>
-      </c>
       <c r="E47" s="3">
-        <v>73.25</v>
+        <v>96.5</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -1771,12 +1771,12 @@
         <v>20</v>
       </c>
       <c r="H47" s="3">
-        <v>84</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="23">
       <c r="A48" s="2">
-        <v>45554</v>
+        <v>45562</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>16</v>
@@ -1788,7 +1788,7 @@
         <v>11</v>
       </c>
       <c r="E48" s="3">
-        <v>88.25</v>
+        <v>73.25</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>10</v>
@@ -1797,12 +1797,12 @@
         <v>20</v>
       </c>
       <c r="H48" s="3">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="23">
       <c r="A49" s="2">
-        <v>45548</v>
+        <v>45554</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>16</v>
@@ -1811,10 +1811,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E49" s="3">
-        <v>108.25</v>
+        <v>88.25</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -1823,24 +1823,24 @@
         <v>20</v>
       </c>
       <c r="H49" s="3">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="23">
       <c r="A50" s="2">
-        <v>45547</v>
+        <v>45548</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="3">
-        <v>20</v>
-      </c>
-      <c r="E50" s="5">
-        <v>5624.5</v>
+        <v>12</v>
+      </c>
+      <c r="E50" s="3">
+        <v>108.25</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>10</v>
@@ -1849,7 +1849,7 @@
         <v>20</v>
       </c>
       <c r="H50" s="3">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="23">
@@ -1857,22 +1857,22 @@
         <v>45547</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="3">
-        <v>50</v>
-      </c>
-      <c r="E51" s="3">
-        <v>134</v>
+        <v>20</v>
+      </c>
+      <c r="E51" s="5">
+        <v>5624.5</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H51" s="3">
         <v>50</v>
@@ -1883,16 +1883,16 @@
         <v>45547</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D52" s="3">
-        <v>27</v>
-      </c>
-      <c r="E52" s="5">
-        <v>5567.69</v>
+        <v>50</v>
+      </c>
+      <c r="E52" s="3">
+        <v>134</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>10</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="23">
@@ -1909,22 +1909,22 @@
         <v>45547</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="3">
-        <v>40</v>
-      </c>
-      <c r="E53" s="3">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="E53" s="5">
+        <v>5567.69</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="3">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="54" spans="1:8" ht="23">
       <c r="A54" s="2">
-        <v>45546</v>
+        <v>45547</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>17</v>
@@ -1941,10 +1941,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="3">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E54" s="3">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>10</v>
@@ -1953,24 +1953,24 @@
         <v>27</v>
       </c>
       <c r="H54" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="23">
       <c r="A55" s="2">
-        <v>45544</v>
+        <v>45546</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>9</v>
+      <c r="C55" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D55" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55" s="3">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>10</v>
@@ -1979,24 +1979,24 @@
         <v>27</v>
       </c>
       <c r="H55" s="3">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="23">
       <c r="A56" s="2">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>12</v>
+      <c r="C56" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D56" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E56" s="3">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>10</v>
@@ -2005,12 +2005,12 @@
         <v>27</v>
       </c>
       <c r="H56" s="3">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23">
       <c r="A57" s="2">
-        <v>45540</v>
+        <v>45541</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>17</v>
@@ -2019,10 +2019,10 @@
         <v>12</v>
       </c>
       <c r="D57" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E57" s="3">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>10</v>
@@ -2031,12 +2031,12 @@
         <v>27</v>
       </c>
       <c r="H57" s="3">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="23">
       <c r="A58" s="2">
-        <v>45539</v>
+        <v>45540</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -2045,10 +2045,10 @@
         <v>12</v>
       </c>
       <c r="D58" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E58" s="3">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2057,24 +2057,24 @@
         <v>27</v>
       </c>
       <c r="H58" s="3">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="23">
       <c r="A59" s="2">
-        <v>45538</v>
+        <v>45539</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D59" s="3">
-        <v>10</v>
-      </c>
-      <c r="E59" s="5">
-        <v>5574.5</v>
+        <v>14</v>
+      </c>
+      <c r="E59" s="3">
+        <v>60</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>10</v>
@@ -2083,30 +2083,30 @@
         <v>27</v>
       </c>
       <c r="H59" s="3">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="23">
       <c r="A60" s="2">
-        <v>45533</v>
+        <v>45538</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>12</v>
+      <c r="C60" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D60" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E60" s="5">
-        <v>5651.75</v>
+        <v>5574.5</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H60" s="3">
         <v>80</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="61" spans="1:8" ht="23">
       <c r="A61" s="2">
-        <v>45525</v>
+        <v>45533</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>18</v>
@@ -2123,16 +2123,16 @@
         <v>12</v>
       </c>
       <c r="D61" s="3">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="E61" s="5">
-        <v>5632.8</v>
+        <v>5651.75</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="3">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H61" s="3">
         <v>80</v>
@@ -2143,16 +2143,16 @@
         <v>45525</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="3">
-        <v>73</v>
-      </c>
-      <c r="E62" s="3">
-        <v>43.12</v>
+        <v>26</v>
+      </c>
+      <c r="E62" s="5">
+        <v>5632.8</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -2166,33 +2166,33 @@
     </row>
     <row r="63" spans="1:8" ht="23">
       <c r="A63" s="2">
-        <v>45523</v>
+        <v>45525</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>9</v>
+      <c r="C63" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D63" s="3">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="E63" s="3">
-        <v>46.5</v>
+        <v>43.12</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="3">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="H63" s="3">
-        <v>153</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="23">
       <c r="A64" s="2">
-        <v>45519</v>
+        <v>45523</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>17</v>
@@ -2204,7 +2204,7 @@
         <v>33</v>
       </c>
       <c r="E64" s="3">
-        <v>67.5</v>
+        <v>46.5</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>10</v>
@@ -2213,24 +2213,24 @@
         <v>48</v>
       </c>
       <c r="H64" s="3">
-        <v>120</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="23">
       <c r="A65" s="2">
-        <v>45518</v>
+        <v>45519</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D65" s="3">
-        <v>7</v>
-      </c>
-      <c r="E65" s="5">
-        <v>5460</v>
+        <v>33</v>
+      </c>
+      <c r="E65" s="3">
+        <v>67.5</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>10</v>
@@ -2239,12 +2239,12 @@
         <v>48</v>
       </c>
       <c r="H65" s="3">
-        <v>87</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="23">
       <c r="A66" s="2">
-        <v>45517</v>
+        <v>45518</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>18</v>
@@ -2253,16 +2253,16 @@
         <v>12</v>
       </c>
       <c r="D66" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E66" s="5">
-        <v>5409.5</v>
+        <v>5460</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="3">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="H66" s="3">
         <v>87</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="67" spans="1:8" ht="23">
       <c r="A67" s="2">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>18</v>
@@ -2279,16 +2279,16 @@
         <v>12</v>
       </c>
       <c r="D67" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E67" s="5">
-        <v>5298.5</v>
+        <v>5409.5</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="3">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H67" s="3">
         <v>87</v>
@@ -2296,25 +2296,25 @@
     </row>
     <row r="68" spans="1:8" ht="23">
       <c r="A68" s="2">
-        <v>45509</v>
+        <v>45510</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>9</v>
+      <c r="C68" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D68" s="3">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E68" s="5">
-        <v>5203.7</v>
+        <v>5298.5</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="3">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H68" s="3">
         <v>87</v>
@@ -2322,25 +2322,25 @@
     </row>
     <row r="69" spans="1:8" ht="23">
       <c r="A69" s="2">
-        <v>45506</v>
+        <v>45509</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D69" s="3">
-        <v>28</v>
-      </c>
-      <c r="E69" s="3">
-        <v>179.2</v>
+        <v>18</v>
+      </c>
+      <c r="E69" s="5">
+        <v>5203.7</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="3">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H69" s="3">
         <v>87</v>
@@ -2348,19 +2348,19 @@
     </row>
     <row r="70" spans="1:8" ht="23">
       <c r="A70" s="2">
-        <v>45505</v>
+        <v>45506</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D70" s="3">
-        <v>7</v>
-      </c>
-      <c r="E70" s="5">
-        <v>5513.75</v>
+        <v>28</v>
+      </c>
+      <c r="E70" s="3">
+        <v>179.2</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>10</v>
@@ -2369,30 +2369,30 @@
         <v>54</v>
       </c>
       <c r="H70" s="3">
-        <v>115</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="23">
       <c r="A71" s="2">
-        <v>45504</v>
+        <v>45505</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="3">
-        <v>30</v>
-      </c>
-      <c r="E71" s="3">
-        <v>89</v>
+        <v>7</v>
+      </c>
+      <c r="E71" s="5">
+        <v>5513.75</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="3">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H71" s="3">
         <v>115</v>
@@ -2400,19 +2400,19 @@
     </row>
     <row r="72" spans="1:8" ht="23">
       <c r="A72" s="2">
-        <v>45503</v>
+        <v>45504</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>12</v>
+      <c r="C72" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D72" s="3">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E72" s="3">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -2421,12 +2421,12 @@
         <v>47</v>
       </c>
       <c r="H72" s="3">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="23">
       <c r="A73" s="2">
-        <v>45497</v>
+        <v>45503</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>17</v>
@@ -2435,10 +2435,10 @@
         <v>12</v>
       </c>
       <c r="D73" s="3">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E73" s="3">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>10</v>
@@ -2447,24 +2447,24 @@
         <v>47</v>
       </c>
       <c r="H73" s="3">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="23">
       <c r="A74" s="2">
-        <v>45491</v>
+        <v>45497</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D74" s="3">
-        <v>10</v>
-      </c>
-      <c r="E74" s="5">
-        <v>5603.75</v>
+        <v>40</v>
+      </c>
+      <c r="E74" s="3">
+        <v>111</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>10</v>
@@ -2473,30 +2473,30 @@
         <v>47</v>
       </c>
       <c r="H74" s="3">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="23">
       <c r="A75" s="2">
-        <v>45484</v>
+        <v>45491</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>12</v>
+      <c r="C75" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D75" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" s="5">
-        <v>5657.25</v>
+        <v>5603.75</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="3">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H75" s="3">
         <v>140</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="76" spans="1:8" ht="23">
       <c r="A76" s="2">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>18</v>
@@ -2516,13 +2516,13 @@
         <v>9</v>
       </c>
       <c r="E76" s="5">
-        <v>5626.75</v>
+        <v>5657.25</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="3">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H76" s="3">
         <v>140</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="77" spans="1:8" ht="23">
       <c r="A77" s="2">
-        <v>45476</v>
+        <v>45481</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>18</v>
@@ -2539,16 +2539,16 @@
         <v>12</v>
       </c>
       <c r="D77" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E77" s="5">
-        <v>5576.25</v>
+        <v>5626.75</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="3">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H77" s="3">
         <v>140</v>
@@ -2556,25 +2556,25 @@
     </row>
     <row r="78" spans="1:8" ht="23">
       <c r="A78" s="2">
-        <v>45474</v>
+        <v>45476</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>9</v>
+      <c r="C78" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D78" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E78" s="5">
-        <v>5513</v>
+        <v>5576.25</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="3">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H78" s="3">
         <v>140</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="79" spans="1:8" ht="23">
       <c r="A79" s="2">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>18</v>
@@ -2591,16 +2591,16 @@
         <v>9</v>
       </c>
       <c r="D79" s="3">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E79" s="5">
-        <v>5556.75</v>
+        <v>5513</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="3">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H79" s="3">
         <v>140</v>
@@ -2611,22 +2611,22 @@
         <v>45471</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="3">
-        <v>40</v>
-      </c>
-      <c r="E80" s="3">
-        <v>96.5</v>
+        <v>16</v>
+      </c>
+      <c r="E80" s="5">
+        <v>5556.75</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="3">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H80" s="3">
         <v>140</v>
@@ -2634,19 +2634,19 @@
     </row>
     <row r="81" spans="1:8" ht="23">
       <c r="A81" s="2">
-        <v>45463</v>
+        <v>45471</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="3">
-        <v>41</v>
-      </c>
-      <c r="E81" s="5">
-        <v>5567.64</v>
+        <v>40</v>
+      </c>
+      <c r="E81" s="3">
+        <v>96.5</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>10</v>
@@ -2655,7 +2655,7 @@
         <v>41</v>
       </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="23">
@@ -2663,16 +2663,16 @@
         <v>45463</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="3">
-        <v>100</v>
-      </c>
-      <c r="E82" s="3">
-        <v>103.82</v>
+        <v>41</v>
+      </c>
+      <c r="E82" s="5">
+        <v>5567.64</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>10</v>
@@ -2689,25 +2689,25 @@
         <v>45463</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D83" s="3">
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0.1</v>
+        <v>103.82</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="23">
@@ -2715,16 +2715,16 @@
         <v>45463</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="3">
-        <v>2</v>
-      </c>
-      <c r="E84" s="5">
-        <v>5494.5</v>
+        <v>100</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0.1</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>10</v>
@@ -2733,12 +2733,12 @@
         <v>0</v>
       </c>
       <c r="H84" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="23">
       <c r="A85" s="2">
-        <v>45455</v>
+        <v>45463</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -2747,16 +2747,16 @@
         <v>12</v>
       </c>
       <c r="D85" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" s="5">
-        <v>5445.5</v>
+        <v>5494.5</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H85" s="3">
         <v>100</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="86" spans="1:8" ht="23">
       <c r="A86" s="2">
-        <v>45449</v>
+        <v>45455</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>20</v>
@@ -2776,13 +2776,13 @@
         <v>4</v>
       </c>
       <c r="E86" s="5">
-        <v>5363.5</v>
+        <v>5445.5</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H86" s="3">
         <v>100</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="87" spans="1:8" ht="23">
       <c r="A87" s="2">
-        <v>45448</v>
+        <v>45449</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>20</v>
@@ -2799,16 +2799,16 @@
         <v>12</v>
       </c>
       <c r="D87" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E87" s="5">
-        <v>5329.5</v>
+        <v>5363.5</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H87" s="3">
         <v>100</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="88" spans="1:8" ht="23">
       <c r="A88" s="2">
-        <v>45446</v>
+        <v>45448</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>20</v>
@@ -2825,16 +2825,16 @@
         <v>12</v>
       </c>
       <c r="D88" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E88" s="5">
-        <v>5281.25</v>
+        <v>5329.5</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H88" s="3">
         <v>100</v>
@@ -2842,25 +2842,25 @@
     </row>
     <row r="89" spans="1:8" ht="23">
       <c r="A89" s="2">
-        <v>45443</v>
+        <v>45446</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>9</v>
+      <c r="C89" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D89" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E89" s="5">
-        <v>5231</v>
+        <v>5281.25</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H89" s="3">
         <v>100</v>
@@ -2868,25 +2868,25 @@
     </row>
     <row r="90" spans="1:8" ht="23">
       <c r="A90" s="2">
-        <v>45428</v>
+        <v>45443</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>12</v>
+      <c r="C90" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D90" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E90" s="5">
-        <v>5347.5</v>
+        <v>5231</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="3">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H90" s="3">
         <v>100</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="91" spans="1:8" ht="23">
       <c r="A91" s="2">
-        <v>45427</v>
+        <v>45428</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>20</v>
@@ -2903,16 +2903,16 @@
         <v>12</v>
       </c>
       <c r="D91" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E91" s="5">
-        <v>5306.75</v>
+        <v>5347.5</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H91" s="3">
         <v>100</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="92" spans="1:8" ht="23">
       <c r="A92" s="2">
-        <v>45422</v>
+        <v>45427</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>20</v>
@@ -2929,16 +2929,16 @@
         <v>12</v>
       </c>
       <c r="D92" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E92" s="5">
-        <v>5253.75</v>
+        <v>5306.75</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="3">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H92" s="3">
         <v>100</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="93" spans="1:8" ht="23">
       <c r="A93" s="2">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>20</v>
@@ -2958,13 +2958,13 @@
         <v>6</v>
       </c>
       <c r="E93" s="5">
-        <v>5222.25</v>
+        <v>5253.75</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="3">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H93" s="3">
         <v>100</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="94" spans="1:8" ht="23">
       <c r="A94" s="2">
-        <v>45418</v>
+        <v>45419</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>20</v>
@@ -2981,16 +2981,16 @@
         <v>12</v>
       </c>
       <c r="D94" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E94" s="5">
-        <v>5184.25</v>
+        <v>5222.25</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="3">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H94" s="3">
         <v>100</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="95" spans="1:8" ht="23">
       <c r="A95" s="2">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>20</v>
@@ -3007,16 +3007,16 @@
         <v>12</v>
       </c>
       <c r="D95" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E95" s="5">
-        <v>5134.25</v>
+        <v>5184.25</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="3">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H95" s="3">
         <v>100</v>
@@ -3024,25 +3024,25 @@
     </row>
     <row r="96" spans="1:8" ht="23">
       <c r="A96" s="2">
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>9</v>
+      <c r="C96" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D96" s="3">
         <v>12</v>
       </c>
       <c r="E96" s="5">
-        <v>5057.5</v>
+        <v>5134.25</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="3">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H96" s="3">
         <v>100</v>
@@ -3050,25 +3050,25 @@
     </row>
     <row r="97" spans="1:8" ht="23">
       <c r="A97" s="2">
-        <v>45408</v>
+        <v>45413</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>12</v>
+      <c r="C97" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D97" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E97" s="5">
-        <v>5136</v>
+        <v>5057.5</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="3">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H97" s="3">
         <v>100</v>
@@ -3076,25 +3076,25 @@
     </row>
     <row r="98" spans="1:8" ht="23">
       <c r="A98" s="2">
-        <v>45407</v>
+        <v>45408</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>9</v>
+      <c r="C98" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D98" s="3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E98" s="5">
-        <v>5037.5</v>
+        <v>5136</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="3">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="H98" s="3">
         <v>100</v>
@@ -3102,25 +3102,25 @@
     </row>
     <row r="99" spans="1:8" ht="23">
       <c r="A99" s="2">
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>12</v>
+      <c r="C99" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D99" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E99" s="5">
-        <v>5104.5</v>
+        <v>5037.5</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="3">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="H99" s="3">
         <v>100</v>
@@ -3128,25 +3128,25 @@
     </row>
     <row r="100" spans="1:8" ht="23">
       <c r="A100" s="2">
-        <v>45404</v>
+        <v>45405</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>9</v>
+      <c r="C100" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D100" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E100" s="5">
-        <v>5012</v>
+        <v>5104.5</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="3">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="101" spans="1:8" ht="23">
       <c r="A101" s="2">
-        <v>45398</v>
+        <v>45404</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>20</v>
@@ -3163,16 +3163,16 @@
         <v>9</v>
       </c>
       <c r="D101" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E101" s="5">
-        <v>5089</v>
+        <v>5012</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="3">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="102" spans="1:8" ht="23">
       <c r="A102" s="2">
-        <v>45394</v>
+        <v>45398</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>20</v>
@@ -3189,16 +3189,16 @@
         <v>9</v>
       </c>
       <c r="D102" s="3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E102" s="5">
-        <v>5190</v>
+        <v>5089</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="3">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
@@ -3209,22 +3209,22 @@
         <v>45394</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="3">
-        <v>100</v>
-      </c>
-      <c r="E103" s="3">
-        <v>103.91</v>
+        <v>7</v>
+      </c>
+      <c r="E103" s="5">
+        <v>5190</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="3">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H103" s="3">
         <v>100</v>
@@ -3235,16 +3235,16 @@
         <v>45394</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D104" s="3">
         <v>100</v>
       </c>
       <c r="E104" s="3">
-        <v>42.1</v>
+        <v>103.91</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>10</v>
@@ -3253,24 +3253,24 @@
         <v>34</v>
       </c>
       <c r="H104" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="23">
       <c r="A105" s="2">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D105" s="3">
-        <v>7</v>
-      </c>
-      <c r="E105" s="5">
-        <v>5193.5</v>
+        <v>100</v>
+      </c>
+      <c r="E105" s="3">
+        <v>42.1</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>10</v>
@@ -3279,12 +3279,12 @@
         <v>34</v>
       </c>
       <c r="H105" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="23">
       <c r="A106" s="2">
-        <v>45387</v>
+        <v>45393</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>20</v>
@@ -3293,16 +3293,16 @@
         <v>9</v>
       </c>
       <c r="D106" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E106" s="5">
-        <v>5247</v>
+        <v>5193.5</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="3">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H106" s="3">
         <v>100</v>
@@ -3310,25 +3310,25 @@
     </row>
     <row r="107" spans="1:8" ht="23">
       <c r="A107" s="2">
-        <v>45386</v>
+        <v>45387</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>12</v>
+      <c r="C107" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D107" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E107" s="5">
-        <v>5299.5</v>
+        <v>5247</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H107" s="3">
         <v>100</v>
@@ -3336,25 +3336,25 @@
     </row>
     <row r="108" spans="1:8" ht="23">
       <c r="A108" s="2">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>9</v>
+      <c r="C108" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D108" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E108" s="5">
-        <v>5240</v>
+        <v>5299.5</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="3">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H108" s="3">
         <v>100</v>
@@ -3362,25 +3362,25 @@
     </row>
     <row r="109" spans="1:8" ht="23">
       <c r="A109" s="2">
-        <v>45372</v>
+        <v>45384</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>12</v>
+      <c r="C109" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D109" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E109" s="5">
-        <v>5318.5</v>
+        <v>5240</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="3">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H109" s="3">
         <v>100</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="110" spans="1:8" ht="23">
       <c r="A110" s="2">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>20</v>
@@ -3397,16 +3397,16 @@
         <v>12</v>
       </c>
       <c r="D110" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E110" s="5">
-        <v>5223</v>
+        <v>5318.5</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="3">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H110" s="3">
         <v>100</v>
@@ -3414,25 +3414,25 @@
     </row>
     <row r="111" spans="1:8" ht="23">
       <c r="A111" s="2">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>9</v>
+      <c r="C111" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D111" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E111" s="5">
-        <v>5178.7</v>
+        <v>5223</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H111" s="3">
         <v>100</v>
@@ -3440,25 +3440,25 @@
     </row>
     <row r="112" spans="1:8" ht="23">
       <c r="A112" s="2">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>12</v>
+      <c r="C112" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D112" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E112" s="5">
-        <v>5181</v>
+        <v>5178.7</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H112" s="3">
         <v>100</v>
@@ -3466,25 +3466,25 @@
     </row>
     <row r="113" spans="1:8" ht="23">
       <c r="A113" s="2">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>9</v>
+      <c r="C113" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D113" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E113" s="5">
-        <v>5178.7</v>
+        <v>5181</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="3">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H113" s="3">
         <v>100</v>
@@ -3492,25 +3492,25 @@
     </row>
     <row r="114" spans="1:8" ht="23">
       <c r="A114" s="2">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>12</v>
+      <c r="C114" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D114" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E114" s="5">
-        <v>5250.5</v>
+        <v>5178.7</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H114" s="3">
         <v>100</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="115" spans="1:8" ht="23">
       <c r="A115" s="2">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>20</v>
@@ -3527,16 +3527,16 @@
         <v>12</v>
       </c>
       <c r="D115" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E115" s="5">
-        <v>5190</v>
+        <v>5250.5</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="3">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H115" s="3">
         <v>100</v>
@@ -3544,25 +3544,25 @@
     </row>
     <row r="116" spans="1:8" ht="23">
       <c r="A116" s="2">
-        <v>45356</v>
+        <v>45357</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>9</v>
+      <c r="C116" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D116" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E116" s="5">
-        <v>5155</v>
+        <v>5190</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="3">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H116" s="3">
         <v>100</v>
@@ -3570,25 +3570,25 @@
     </row>
     <row r="117" spans="1:8" ht="23">
       <c r="A117" s="2">
-        <v>45355</v>
+        <v>45356</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>12</v>
+      <c r="C117" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D117" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E117" s="5">
-        <v>5200.8999999999996</v>
+        <v>5155</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="3">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H117" s="3">
         <v>100</v>
@@ -3596,25 +3596,25 @@
     </row>
     <row r="118" spans="1:8" ht="23">
       <c r="A118" s="2">
-        <v>45345</v>
+        <v>45355</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>9</v>
+      <c r="C118" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D118" s="3">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E118" s="5">
-        <v>5166.3999999999996</v>
+        <v>5200.8999999999996</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="3">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H118" s="3">
         <v>100</v>
@@ -3625,22 +3625,22 @@
         <v>45345</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D119" s="3">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E119" s="5">
-        <v>5099</v>
+        <v>5166.3999999999996</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="3">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="H119" s="3">
         <v>100</v>
@@ -3651,22 +3651,22 @@
         <v>45345</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D120" s="3">
-        <v>100</v>
-      </c>
-      <c r="E120" s="3">
-        <v>85.75</v>
+        <v>12</v>
+      </c>
+      <c r="E120" s="5">
+        <v>5099</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="3">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H120" s="3">
         <v>100</v>
@@ -3677,16 +3677,16 @@
         <v>45345</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D121" s="3">
         <v>100</v>
       </c>
       <c r="E121" s="3">
-        <v>8.26</v>
+        <v>85.75</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>10</v>
@@ -3695,24 +3695,24 @@
         <v>12</v>
       </c>
       <c r="H121" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="23">
       <c r="A122" s="2">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="3">
-        <v>15</v>
-      </c>
-      <c r="E122" s="5">
-        <v>5070.25</v>
+        <v>100</v>
+      </c>
+      <c r="E122" s="3">
+        <v>8.26</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>10</v>
@@ -3721,30 +3721,30 @@
         <v>12</v>
       </c>
       <c r="H122" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="23">
       <c r="A123" s="2">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>9</v>
+      <c r="C123" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D123" s="3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E123" s="5">
-        <v>4977.75</v>
+        <v>5070.25</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="3">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="H123" s="3">
         <v>100</v>
@@ -3752,25 +3752,25 @@
     </row>
     <row r="124" spans="1:8" ht="23">
       <c r="A124" s="2">
-        <v>45337</v>
+        <v>45342</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>12</v>
+      <c r="C124" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D124" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E124" s="5">
-        <v>5024.25</v>
+        <v>4977.75</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H124" s="3">
         <v>100</v>
@@ -3778,25 +3778,25 @@
     </row>
     <row r="125" spans="1:8" ht="23">
       <c r="A125" s="2">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>9</v>
+      <c r="C125" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D125" s="3">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E125" s="5">
-        <v>4980.75</v>
+        <v>5024.25</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H125" s="3">
         <v>100</v>
@@ -3804,25 +3804,25 @@
     </row>
     <row r="126" spans="1:8" ht="23">
       <c r="A126" s="2">
-        <v>45334</v>
+        <v>45335</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>12</v>
+      <c r="C126" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D126" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E126" s="5">
-        <v>5052</v>
+        <v>4980.75</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="3">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H126" s="3">
         <v>100</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="127" spans="1:8" ht="23">
       <c r="A127" s="2">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>11</v>
@@ -3839,16 +3839,16 @@
         <v>12</v>
       </c>
       <c r="D127" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E127" s="5">
-        <v>5013.25</v>
+        <v>5052</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H127" s="3">
         <v>100</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="128" spans="1:8" ht="23">
       <c r="A128" s="2">
-        <v>45324</v>
+        <v>45330</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>11</v>
@@ -3868,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="E128" s="5">
-        <v>4957.5</v>
+        <v>5013.25</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="3">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H128" s="3">
         <v>100</v>
@@ -3882,25 +3882,25 @@
     </row>
     <row r="129" spans="1:8" ht="23">
       <c r="A129" s="2">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>9</v>
+      <c r="C129" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D129" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E129" s="5">
-        <v>4907</v>
+        <v>4957.5</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="3">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H129" s="3">
         <v>100</v>
@@ -3908,25 +3908,25 @@
     </row>
     <row r="130" spans="1:8" ht="23">
       <c r="A130" s="2">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>12</v>
+      <c r="C130" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D130" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E130" s="5">
-        <v>4947.25</v>
+        <v>4907</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H130" s="3">
         <v>100</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="131" spans="1:8" ht="23">
       <c r="A131" s="2">
-        <v>45315</v>
+        <v>45321</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>11</v>
@@ -3943,16 +3943,16 @@
         <v>12</v>
       </c>
       <c r="D131" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E131" s="5">
-        <v>4925.75</v>
+        <v>4947.25</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H131" s="3">
         <v>100</v>
@@ -3960,25 +3960,25 @@
     </row>
     <row r="132" spans="1:8" ht="23">
       <c r="A132" s="2">
-        <v>45314</v>
+        <v>45315</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D132" s="3">
-        <v>100</v>
-      </c>
-      <c r="E132" s="3">
-        <v>79</v>
+        <v>10</v>
+      </c>
+      <c r="E132" s="5">
+        <v>4925.75</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H132" s="3">
         <v>100</v>
@@ -3989,16 +3989,16 @@
         <v>45314</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D133" s="3">
         <v>100</v>
       </c>
       <c r="E133" s="3">
-        <v>2.75</v>
+        <v>79</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         <v>50</v>
       </c>
       <c r="H133" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="23">
@@ -4015,16 +4015,16 @@
         <v>45314</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D134" s="3">
-        <v>43</v>
-      </c>
-      <c r="E134" s="5">
-        <v>4876.25</v>
+        <v>100</v>
+      </c>
+      <c r="E134" s="3">
+        <v>2.75</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>10</v>
@@ -4033,30 +4033,30 @@
         <v>50</v>
       </c>
       <c r="H134" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="23">
       <c r="A135" s="2">
-        <v>45313</v>
+        <v>45314</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>12</v>
+      <c r="C135" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D135" s="3">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E135" s="5">
-        <v>4880.5</v>
+        <v>4876.25</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="3">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="H135" s="3">
         <v>100</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="136" spans="1:8" ht="23">
       <c r="A136" s="2">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>11</v>
@@ -4073,16 +4073,16 @@
         <v>12</v>
       </c>
       <c r="D136" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136" s="5">
-        <v>4831</v>
+        <v>4880.5</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H136" s="3">
         <v>100</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="137" spans="1:8" ht="23">
       <c r="A137" s="2">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>11</v>
@@ -4099,16 +4099,16 @@
         <v>12</v>
       </c>
       <c r="D137" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E137" s="5">
-        <v>4792.5</v>
+        <v>4831</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H137" s="3">
         <v>100</v>
@@ -4116,25 +4116,25 @@
     </row>
     <row r="138" spans="1:8" ht="23">
       <c r="A138" s="2">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>9</v>
+      <c r="C138" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D138" s="3">
         <v>8</v>
       </c>
       <c r="E138" s="5">
-        <v>4772.25</v>
+        <v>4792.5</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H138" s="3">
         <v>100</v>
@@ -4142,25 +4142,25 @@
     </row>
     <row r="139" spans="1:8" ht="23">
       <c r="A139" s="2">
-        <v>45301</v>
+        <v>45308</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>12</v>
+      <c r="C139" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D139" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E139" s="5">
-        <v>4797.6000000000004</v>
+        <v>4772.25</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H139" s="3">
         <v>100</v>
@@ -4168,25 +4168,25 @@
     </row>
     <row r="140" spans="1:8" ht="23">
       <c r="A140" s="2">
-        <v>45294</v>
+        <v>45301</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>9</v>
+      <c r="C140" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D140" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E140" s="5">
-        <v>4756</v>
+        <v>4797.6000000000004</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="3">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H140" s="3">
         <v>100</v>
@@ -4194,25 +4194,25 @@
     </row>
     <row r="141" spans="1:8" ht="23">
       <c r="A141" s="2">
-        <v>45282</v>
+        <v>45294</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>12</v>
+      <c r="C141" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D141" s="3">
         <v>10</v>
       </c>
       <c r="E141" s="5">
-        <v>4808.75</v>
+        <v>4756</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H141" s="3">
         <v>100</v>
@@ -4220,25 +4220,25 @@
     </row>
     <row r="142" spans="1:8" ht="23">
       <c r="A142" s="2">
-        <v>45281</v>
+        <v>45282</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>9</v>
+      <c r="C142" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D142" s="3">
         <v>10</v>
       </c>
       <c r="E142" s="5">
-        <v>4764</v>
+        <v>4808.75</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H142" s="3">
         <v>100</v>
@@ -4246,25 +4246,25 @@
     </row>
     <row r="143" spans="1:8" ht="23">
       <c r="A143" s="2">
-        <v>45279</v>
+        <v>45281</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>12</v>
+      <c r="C143" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D143" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E143" s="5">
-        <v>4813.5</v>
+        <v>4764</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H143" s="3">
         <v>100</v>
@@ -4272,25 +4272,25 @@
     </row>
     <row r="144" spans="1:8" ht="23">
       <c r="A144" s="2">
-        <v>45274</v>
+        <v>45279</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>9</v>
+      <c r="C144" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D144" s="3">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E144" s="5">
-        <v>4777.75</v>
+        <v>4813.5</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="3">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H144" s="3">
         <v>100</v>
@@ -4301,22 +4301,22 @@
         <v>45274</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C145" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D145" s="3">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E145" s="5">
-        <v>4721.8500000000004</v>
+        <v>4777.75</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H145" s="3">
         <v>100</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="146" spans="1:8" ht="23">
       <c r="A146" s="2">
-        <v>45271</v>
+        <v>45274</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>14</v>
@@ -4333,16 +4333,16 @@
         <v>12</v>
       </c>
       <c r="D146" s="3">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E146" s="5">
-        <v>4609.25</v>
+        <v>4721.8500000000004</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H146" s="3">
         <v>100</v>
@@ -4350,25 +4350,25 @@
     </row>
     <row r="147" spans="1:8" ht="23">
       <c r="A147" s="2">
-        <v>45260</v>
+        <v>45271</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D147" s="3">
-        <v>100</v>
-      </c>
-      <c r="E147" s="3">
-        <v>149.08000000000001</v>
+        <v>10</v>
+      </c>
+      <c r="E147" s="5">
+        <v>4609.25</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="3">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H147" s="3">
         <v>100</v>
@@ -4379,16 +4379,16 @@
         <v>45260</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D148" s="3">
         <v>100</v>
       </c>
       <c r="E148" s="3">
-        <v>46.02</v>
+        <v>149.08000000000001</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>10</v>
@@ -4397,24 +4397,24 @@
         <v>70</v>
       </c>
       <c r="H148" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="23">
       <c r="A149" s="2">
-        <v>45252</v>
+        <v>45260</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="3">
-        <v>15</v>
-      </c>
-      <c r="E149" s="5">
-        <v>4571.5</v>
+        <v>100</v>
+      </c>
+      <c r="E149" s="3">
+        <v>46.02</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>10</v>
@@ -4423,30 +4423,30 @@
         <v>70</v>
       </c>
       <c r="H149" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="23">
       <c r="A150" s="2">
-        <v>45246</v>
+        <v>45252</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>9</v>
+      <c r="C150" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D150" s="3">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="E150" s="5">
-        <v>4507.33</v>
+        <v>4571.5</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="3">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H150" s="3">
         <v>100</v>
@@ -4457,22 +4457,22 @@
         <v>45246</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="3">
-        <v>95</v>
-      </c>
-      <c r="E151" s="3">
-        <v>100.94</v>
+        <v>85</v>
+      </c>
+      <c r="E151" s="5">
+        <v>4507.33</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="H151" s="3">
         <v>100</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="152" spans="1:8" ht="23">
       <c r="A152" s="2">
-        <v>45244</v>
+        <v>45246</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>24</v>
@@ -4489,10 +4489,10 @@
         <v>9</v>
       </c>
       <c r="D152" s="3">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="E152" s="3">
-        <v>100.4</v>
+        <v>100.94</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>10</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="H152" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="23">
@@ -4509,16 +4509,16 @@
         <v>45244</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D153" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="E153" s="3">
-        <v>6.4</v>
+        <v>100.4</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>10</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="H153" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="23">
@@ -4535,16 +4535,16 @@
         <v>45244</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="3">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="E154" s="3">
-        <v>4518.25</v>
+        <v>6.4</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>10</v>
@@ -4553,12 +4553,12 @@
         <v>0</v>
       </c>
       <c r="H154" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="23">
       <c r="A155" s="2">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>14</v>
@@ -4567,16 +4567,16 @@
         <v>12</v>
       </c>
       <c r="D155" s="3">
-        <v>7</v>
-      </c>
-      <c r="E155" s="5">
-        <v>4421.75</v>
+        <v>21</v>
+      </c>
+      <c r="E155" s="3">
+        <v>4518.25</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H155" s="3">
         <v>100</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="156" spans="1:8" ht="23">
       <c r="A156" s="2">
-        <v>45237</v>
+        <v>45243</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>14</v>
@@ -4593,16 +4593,16 @@
         <v>12</v>
       </c>
       <c r="D156" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E156" s="5">
-        <v>4396</v>
+        <v>4421.75</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="3">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H156" s="3">
         <v>100</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="157" spans="1:8" ht="23">
       <c r="A157" s="2">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>14</v>
@@ -4619,16 +4619,16 @@
         <v>12</v>
       </c>
       <c r="D157" s="3">
-        <v>13</v>
-      </c>
-      <c r="E157" s="3">
-        <v>4380.75</v>
+        <v>5</v>
+      </c>
+      <c r="E157" s="5">
+        <v>4396</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="3">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H157" s="3">
         <v>100</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="158" spans="1:8" ht="23">
       <c r="A158" s="2">
-        <v>45232</v>
+        <v>45233</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>14</v>
@@ -4645,16 +4645,16 @@
         <v>12</v>
       </c>
       <c r="D158" s="3">
-        <v>19</v>
-      </c>
-      <c r="E158" s="7">
-        <v>4316</v>
+        <v>13</v>
+      </c>
+      <c r="E158" s="3">
+        <v>4380.75</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="3">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H158" s="3">
         <v>100</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="159" spans="1:8" ht="23">
       <c r="A159" s="2">
-        <v>45231</v>
+        <v>45232</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>14</v>
@@ -4671,16 +4671,16 @@
         <v>12</v>
       </c>
       <c r="D159" s="3">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E159" s="7">
-        <v>4223</v>
+        <v>4316</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="3">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="H159" s="3">
         <v>100</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="160" spans="1:8" ht="23">
       <c r="A160" s="2">
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>14</v>
@@ -4697,16 +4697,16 @@
         <v>12</v>
       </c>
       <c r="D160" s="3">
-        <v>57</v>
-      </c>
-      <c r="E160" s="5">
-        <v>4177.63</v>
+        <v>5</v>
+      </c>
+      <c r="E160" s="7">
+        <v>4223</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="3">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H160" s="3">
         <v>100</v>
@@ -4717,22 +4717,22 @@
         <v>45225</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D161" s="3">
-        <v>100</v>
-      </c>
-      <c r="E161" s="3">
-        <v>164.82</v>
+        <v>57</v>
+      </c>
+      <c r="E161" s="5">
+        <v>4177.63</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="3">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="H161" s="3">
         <v>100</v>
@@ -4743,16 +4743,16 @@
         <v>45225</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D162" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E162" s="3">
-        <v>349.99</v>
+        <v>164.82</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>10</v>
@@ -4761,7 +4761,7 @@
         <v>127</v>
       </c>
       <c r="H162" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="23">
@@ -4769,16 +4769,16 @@
         <v>45225</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="3">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="E163" s="3">
-        <v>222</v>
+        <v>349.99</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>10</v>
@@ -4787,24 +4787,24 @@
         <v>127</v>
       </c>
       <c r="H163" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="23">
       <c r="A164" s="2">
-        <v>45219</v>
+        <v>45225</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D164" s="3">
-        <v>11</v>
-      </c>
-      <c r="E164" s="5">
-        <v>4264.5</v>
+        <v>30</v>
+      </c>
+      <c r="E164" s="3">
+        <v>222</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>10</v>
@@ -4813,12 +4813,12 @@
         <v>127</v>
       </c>
       <c r="H164" s="3">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="23">
       <c r="A165" s="2">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>14</v>
@@ -4827,16 +4827,16 @@
         <v>9</v>
       </c>
       <c r="D165" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E165" s="5">
-        <v>4371.8999999999996</v>
+        <v>4264.5</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="3">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="H165" s="3">
         <v>131</v>
@@ -4844,25 +4844,25 @@
     </row>
     <row r="166" spans="1:8" ht="23">
       <c r="A166" s="2">
-        <v>45216</v>
+        <v>45217</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>12</v>
+      <c r="C166" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D166" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E166" s="5">
-        <v>4416.75</v>
+        <v>4371.8999999999996</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="3">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="H166" s="3">
         <v>131</v>
@@ -4870,25 +4870,25 @@
     </row>
     <row r="167" spans="1:8" ht="23">
       <c r="A167" s="2">
-        <v>45212</v>
+        <v>45216</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>9</v>
+      <c r="C167" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D167" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E167" s="5">
-        <v>4369</v>
+        <v>4416.75</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="3">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="H167" s="3">
         <v>131</v>
@@ -4896,25 +4896,25 @@
     </row>
     <row r="168" spans="1:8" ht="23">
       <c r="A168" s="2">
-        <v>45209</v>
+        <v>45212</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>12</v>
+      <c r="C168" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D168" s="3">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E168" s="5">
-        <v>4399.5</v>
+        <v>4369</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="3">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H168" s="3">
         <v>131</v>
@@ -4922,25 +4922,25 @@
     </row>
     <row r="169" spans="1:8" ht="23">
       <c r="A169" s="2">
-        <v>45205</v>
+        <v>45209</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>9</v>
+      <c r="C169" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D169" s="3">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E169" s="5">
-        <v>4323.75</v>
+        <v>4399.5</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="3">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="H169" s="3">
         <v>131</v>
@@ -4951,22 +4951,22 @@
         <v>45205</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="3">
-        <v>30</v>
-      </c>
-      <c r="E170" s="3">
-        <v>147</v>
+        <v>24</v>
+      </c>
+      <c r="E170" s="5">
+        <v>4323.75</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="3">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="H170" s="3">
         <v>131</v>
@@ -4974,19 +4974,19 @@
     </row>
     <row r="171" spans="1:8" ht="23">
       <c r="A171" s="2">
-        <v>45202</v>
+        <v>45205</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="3">
-        <v>4</v>
-      </c>
-      <c r="E171" s="5">
-        <v>4266.25</v>
+        <v>30</v>
+      </c>
+      <c r="E171" s="3">
+        <v>147</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>10</v>
@@ -4995,12 +4995,12 @@
         <v>97</v>
       </c>
       <c r="H171" s="3">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="23">
       <c r="A172" s="2">
-        <v>45201</v>
+        <v>45202</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>14</v>
@@ -5009,16 +5009,16 @@
         <v>9</v>
       </c>
       <c r="D172" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E172" s="5">
-        <v>4317.25</v>
+        <v>4266.25</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H172" s="3">
         <v>101</v>
@@ -5026,25 +5026,25 @@
     </row>
     <row r="173" spans="1:8" ht="23">
       <c r="A173" s="2">
-        <v>45197</v>
+        <v>45201</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>12</v>
+      <c r="C173" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D173" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E173" s="5">
-        <v>4347.5</v>
+        <v>4317.25</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="3">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H173" s="3">
         <v>101</v>
@@ -5052,25 +5052,25 @@
     </row>
     <row r="174" spans="1:8" ht="23">
       <c r="A174" s="2">
-        <v>45196</v>
+        <v>45197</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>9</v>
+      <c r="C174" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D174" s="3">
         <v>4</v>
       </c>
       <c r="E174" s="5">
-        <v>4306</v>
+        <v>4347.5</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="3">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H174" s="3">
         <v>101</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="175" spans="1:8" ht="23">
       <c r="A175" s="2">
-        <v>45195</v>
+        <v>45196</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>14</v>
@@ -5087,16 +5087,16 @@
         <v>9</v>
       </c>
       <c r="D175" s="3">
-        <v>8</v>
-      </c>
-      <c r="E175" s="7">
-        <v>4344</v>
+        <v>4</v>
+      </c>
+      <c r="E175" s="5">
+        <v>4306</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H175" s="3">
         <v>101</v>
@@ -5104,25 +5104,25 @@
     </row>
     <row r="176" spans="1:8" ht="23">
       <c r="A176" s="2">
-        <v>45191</v>
+        <v>45195</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>12</v>
+      <c r="C176" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D176" s="3">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E176" s="7">
-        <v>4398</v>
+        <v>4344</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H176" s="3">
         <v>101</v>
@@ -5133,22 +5133,22 @@
         <v>45191</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D177" s="3">
-        <v>101</v>
-      </c>
-      <c r="E177" s="3">
-        <v>166</v>
+        <v>19</v>
+      </c>
+      <c r="E177" s="7">
+        <v>4398</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="3">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H177" s="3">
         <v>101</v>
@@ -5159,16 +5159,16 @@
         <v>45191</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D178" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E178" s="3">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>10</v>
@@ -5177,24 +5177,24 @@
         <v>99</v>
       </c>
       <c r="H178" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="23">
       <c r="A179" s="2">
-        <v>45190</v>
+        <v>45191</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D179" s="3">
-        <v>4</v>
-      </c>
-      <c r="E179" s="5">
-        <v>4400.5</v>
+        <v>100</v>
+      </c>
+      <c r="E179" s="3">
+        <v>207</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>10</v>
@@ -5203,12 +5203,12 @@
         <v>99</v>
       </c>
       <c r="H179" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="23">
       <c r="A180" s="2">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>14</v>
@@ -5217,16 +5217,16 @@
         <v>9</v>
       </c>
       <c r="D180" s="3">
-        <v>10</v>
-      </c>
-      <c r="E180" s="7">
-        <v>4470</v>
+        <v>4</v>
+      </c>
+      <c r="E180" s="5">
+        <v>4400.5</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="3">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H180" s="3">
         <v>100</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="181" spans="1:8" ht="23">
       <c r="A181" s="2">
-        <v>45184</v>
+        <v>45188</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>14</v>
@@ -5243,16 +5243,16 @@
         <v>9</v>
       </c>
       <c r="D181" s="3">
-        <v>14</v>
-      </c>
-      <c r="E181" s="5">
-        <v>4509.5</v>
+        <v>10</v>
+      </c>
+      <c r="E181" s="7">
+        <v>4470</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="3">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H181" s="3">
         <v>100</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="182" spans="1:8" ht="23">
       <c r="A182" s="2">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>14</v>
@@ -5269,16 +5269,16 @@
         <v>9</v>
       </c>
       <c r="D182" s="3">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="E182" s="5">
-        <v>4548.25</v>
+        <v>4509.5</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="3">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H182" s="3">
         <v>100</v>
@@ -5289,22 +5289,22 @@
         <v>45183</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D183" s="3">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E183" s="5">
-        <v>4496.1000000000004</v>
+        <v>4548.25</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="3">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H183" s="3">
         <v>100</v>
@@ -5312,25 +5312,25 @@
     </row>
     <row r="184" spans="1:8" ht="23">
       <c r="A184" s="2">
-        <v>45176</v>
+        <v>45183</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>9</v>
+      <c r="C184" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D184" s="3">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="E184" s="5">
-        <v>4449.5</v>
+        <v>4496.1000000000004</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H184" s="3">
         <v>100</v>
@@ -5338,25 +5338,25 @@
     </row>
     <row r="185" spans="1:8" ht="23">
       <c r="A185" s="2">
-        <v>45168</v>
+        <v>45176</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>12</v>
+      <c r="C185" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D185" s="3">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E185" s="5">
-        <v>4523.5</v>
+        <v>4449.5</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="3">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="H185" s="3">
         <v>100</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="186" spans="1:8" ht="23">
       <c r="A186" s="2">
-        <v>45167</v>
+        <v>45168</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>18</v>
@@ -5373,16 +5373,16 @@
         <v>12</v>
       </c>
       <c r="D186" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E186" s="5">
-        <v>4476</v>
+        <v>4523.5</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="3">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H186" s="3">
         <v>100</v>
@@ -5390,25 +5390,25 @@
     </row>
     <row r="187" spans="1:8" ht="23">
       <c r="A187" s="2">
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D187" s="3">
-        <v>100</v>
-      </c>
-      <c r="E187" s="3">
-        <v>141</v>
+        <v>11</v>
+      </c>
+      <c r="E187" s="5">
+        <v>4476</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="3">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="H187" s="3">
         <v>100</v>
@@ -5419,16 +5419,16 @@
         <v>45166</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D188" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E188" s="3">
-        <v>319</v>
+        <v>141</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>10</v>
@@ -5437,24 +5437,24 @@
         <v>80</v>
       </c>
       <c r="H188" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="23">
       <c r="A189" s="2">
-        <v>45162</v>
+        <v>45166</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D189" s="3">
-        <v>1</v>
-      </c>
-      <c r="E189" s="5">
-        <v>4408.5</v>
+        <v>80</v>
+      </c>
+      <c r="E189" s="3">
+        <v>319</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>10</v>
@@ -5463,12 +5463,12 @@
         <v>80</v>
       </c>
       <c r="H189" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="23">
       <c r="A190" s="2">
-        <v>45154</v>
+        <v>45162</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>18</v>
@@ -5477,16 +5477,16 @@
         <v>9</v>
       </c>
       <c r="D190" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E190" s="5">
-        <v>4452.75</v>
+        <v>4408.5</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H190" s="3">
         <v>80</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="191" spans="1:8" ht="23">
       <c r="A191" s="2">
-        <v>45146</v>
+        <v>45154</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>18</v>
@@ -5503,16 +5503,16 @@
         <v>9</v>
       </c>
       <c r="D191" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E191" s="5">
-        <v>4487.75</v>
+        <v>4452.75</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="3">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H191" s="3">
         <v>80</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="192" spans="1:8" ht="23">
       <c r="A192" s="2">
-        <v>45140</v>
+        <v>45146</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>18</v>
@@ -5529,16 +5529,16 @@
         <v>9</v>
       </c>
       <c r="D192" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E192" s="5">
-        <v>4544</v>
+        <v>4487.75</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="3">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H192" s="3">
         <v>80</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="193" spans="1:8" ht="23">
       <c r="A193" s="2">
-        <v>45138</v>
+        <v>45140</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>18</v>
@@ -5555,16 +5555,16 @@
         <v>9</v>
       </c>
       <c r="D193" s="3">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="E193" s="5">
-        <v>4609.8</v>
+        <v>4544</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="3">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H193" s="3">
         <v>80</v>
@@ -5575,24 +5575,50 @@
         <v>45138</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="3">
+        <v>64</v>
+      </c>
+      <c r="E194" s="5">
+        <v>4609.8</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="3">
+        <v>64</v>
+      </c>
+      <c r="H194" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="23">
+      <c r="A195" s="2">
+        <v>45138</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="3">
+      <c r="C195" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="3">
         <v>80</v>
       </c>
-      <c r="E194" s="3">
+      <c r="E195" s="3">
         <v>160</v>
       </c>
-      <c r="F194" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="3">
+      <c r="F195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="3">
         <v>0</v>
       </c>
-      <c r="H194" s="3">
+      <c r="H195" s="3">
         <v>80</v>
       </c>
     </row>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A71FFDC-0A08-604D-803C-81C23FE2962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CF32BA-66C7-394B-BD4F-EF79FAFC71D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7040" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="33">
   <si>
     <t>DATA</t>
   </si>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF9FDCF-EF68-8E4F-B932-D74FD0632ABD}">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -580,7 +580,7 @@
     </row>
     <row r="2" spans="1:8" ht="23">
       <c r="A2" s="2">
-        <v>45700</v>
+        <v>45694</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="3">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3">
         <v>84</v>
@@ -598,27 +598,27 @@
         <v>10</v>
       </c>
       <c r="G2" s="3">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3">
-        <v>14</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="23">
       <c r="A3" s="2">
-        <v>45694</v>
+        <v>45692</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3">
-        <v>84</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="5">
+        <v>6056.25</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>10</v>
@@ -627,7 +627,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="3">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="23">
@@ -635,22 +635,22 @@
         <v>45692</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>7</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6056.25</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>109.3</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H4" s="3">
         <v>40</v>
@@ -658,28 +658,28 @@
     </row>
     <row r="5" spans="1:8" ht="23">
       <c r="A5" s="2">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="3">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5">
+        <v>5962.75</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3">
         <v>20</v>
-      </c>
-      <c r="E5" s="3">
-        <v>109.3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="23">
@@ -687,22 +687,22 @@
         <v>45691</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5">
-        <v>5962.75</v>
+        <v>57</v>
+      </c>
+      <c r="E6" s="3">
+        <v>162.96</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="3">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3">
         <v>20</v>
@@ -710,19 +710,19 @@
     </row>
     <row r="7" spans="1:8" ht="23">
       <c r="A7" s="2">
-        <v>45691</v>
+        <v>45688</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="3">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3">
-        <v>162.96</v>
+        <v>78.3</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -731,12 +731,12 @@
         <v>28</v>
       </c>
       <c r="H7" s="3">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="23">
       <c r="A8" s="2">
-        <v>45688</v>
+        <v>45685</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
@@ -745,10 +745,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3">
-        <v>78.3</v>
+        <v>106</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -757,24 +757,24 @@
         <v>28</v>
       </c>
       <c r="H8" s="3">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="23">
       <c r="A9" s="2">
-        <v>45685</v>
+        <v>45684</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -783,24 +783,24 @@
         <v>28</v>
       </c>
       <c r="H9" s="3">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="23">
       <c r="A10" s="2">
-        <v>45684</v>
+        <v>45679</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3">
-        <v>127</v>
+        <v>84.75</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -809,24 +809,24 @@
         <v>28</v>
       </c>
       <c r="H10" s="3">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="23">
       <c r="A11" s="2">
-        <v>45679</v>
+        <v>45674</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="3">
-        <v>16</v>
-      </c>
-      <c r="E11" s="3">
-        <v>84.75</v>
+        <v>10</v>
+      </c>
+      <c r="E11" s="5">
+        <v>6041.86</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="H11" s="3">
-        <v>76</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="23">
@@ -843,22 +843,22 @@
         <v>45674</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
-        <v>6041.86</v>
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <v>127.53</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="3">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H12" s="3">
         <v>60</v>
@@ -869,16 +869,16 @@
         <v>45674</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E13" s="3">
-        <v>127.53</v>
+        <v>64.75</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
@@ -887,24 +887,24 @@
         <v>18</v>
       </c>
       <c r="H13" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="23">
       <c r="A14" s="2">
-        <v>45674</v>
+        <v>45672</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>12</v>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E14" s="3">
-        <v>64.75</v>
+        <v>85</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -913,7 +913,7 @@
         <v>18</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="23">
@@ -921,16 +921,16 @@
         <v>45672</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>15</v>
-      </c>
-      <c r="E15" s="3">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5978</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -939,12 +939,12 @@
         <v>18</v>
       </c>
       <c r="H15" s="3">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="23">
       <c r="A16" s="2">
-        <v>45672</v>
+        <v>45670</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>14</v>
@@ -953,16 +953,16 @@
         <v>12</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="7">
-        <v>5978</v>
+        <v>15</v>
+      </c>
+      <c r="E16" s="5">
+        <v>5839.05</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="3">
         <v>40</v>
@@ -973,22 +973,22 @@
         <v>45670</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D17" s="3">
-        <v>15</v>
-      </c>
-      <c r="E17" s="5">
-        <v>5839.05</v>
+        <v>40</v>
+      </c>
+      <c r="E17" s="3">
+        <v>153.19999999999999</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="3">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="H17" s="3">
         <v>40</v>
@@ -999,16 +999,16 @@
         <v>45670</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="E18" s="3">
-        <v>153.19999999999999</v>
+        <v>239.51</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -1017,12 +1017,12 @@
         <v>34</v>
       </c>
       <c r="H18" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="23">
       <c r="A19" s="2">
-        <v>45670</v>
+        <v>45667</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>15</v>
@@ -1031,10 +1031,10 @@
         <v>12</v>
       </c>
       <c r="D19" s="3">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="E19" s="3">
-        <v>239.51</v>
+        <v>211.75</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>10</v>
@@ -1043,12 +1043,12 @@
         <v>34</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="23">
       <c r="A20" s="2">
-        <v>45667</v>
+        <v>45664</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>15</v>
@@ -1057,10 +1057,10 @@
         <v>12</v>
       </c>
       <c r="D20" s="3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E20" s="3">
-        <v>211.75</v>
+        <v>176</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>10</v>
@@ -1069,24 +1069,24 @@
         <v>34</v>
       </c>
       <c r="H20" s="3">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="23">
       <c r="A21" s="2">
-        <v>45664</v>
+        <v>45663</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D21" s="3">
-        <v>17</v>
-      </c>
-      <c r="E21" s="3">
-        <v>176</v>
+        <v>28</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6057</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>10</v>
@@ -1095,7 +1095,7 @@
         <v>34</v>
       </c>
       <c r="H21" s="3">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="23">
@@ -1103,22 +1103,22 @@
         <v>45663</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="3">
-        <v>28</v>
-      </c>
-      <c r="E22" s="7">
-        <v>6057</v>
+        <v>68</v>
+      </c>
+      <c r="E22" s="3">
+        <v>119.8</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="3">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H22" s="3">
         <v>80</v>
@@ -1126,28 +1126,28 @@
     </row>
     <row r="23" spans="1:8" ht="23">
       <c r="A23" s="2">
-        <v>45663</v>
+        <v>45646</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>9</v>
+      <c r="C23" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="3">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="E23" s="3">
-        <v>119.8</v>
+        <v>246.42</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="3">
-        <v>80</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="23">
@@ -1155,16 +1155,16 @@
         <v>45646</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D24" s="3">
-        <v>12</v>
-      </c>
-      <c r="E24" s="3">
-        <v>246.42</v>
+        <v>7</v>
+      </c>
+      <c r="E24" s="7">
+        <v>5892</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>10</v>
@@ -1173,7 +1173,7 @@
         <v>7</v>
       </c>
       <c r="H24" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="23">
@@ -1181,22 +1181,22 @@
         <v>45646</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D25" s="3">
-        <v>7</v>
-      </c>
-      <c r="E25" s="7">
-        <v>5892</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="5">
+        <v>5826.5</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>24</v>
@@ -1204,25 +1204,25 @@
     </row>
     <row r="26" spans="1:8" ht="23">
       <c r="A26" s="2">
-        <v>45646</v>
+        <v>45645</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="3">
-        <v>12</v>
-      </c>
-      <c r="E26" s="5">
-        <v>5826.5</v>
+        <v>92</v>
+      </c>
+      <c r="E26" s="3">
+        <v>212</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H26" s="3">
         <v>24</v>
@@ -1233,16 +1233,16 @@
         <v>45645</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="3">
-        <v>92</v>
-      </c>
-      <c r="E27" s="3">
-        <v>212</v>
+        <v>28</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5876</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>10</v>
@@ -1251,30 +1251,30 @@
         <v>12</v>
       </c>
       <c r="H27" s="3">
-        <v>24</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="23">
       <c r="A28" s="2">
-        <v>45645</v>
+        <v>45630</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D28" s="3">
-        <v>28</v>
-      </c>
-      <c r="E28" s="7">
-        <v>5876</v>
+        <v>11</v>
+      </c>
+      <c r="E28" s="3">
+        <v>108</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="3">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="H28" s="3">
         <v>116</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="29" spans="1:8" ht="23">
       <c r="A29" s="2">
-        <v>45630</v>
+        <v>45625</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>15</v>
@@ -1291,10 +1291,10 @@
         <v>9</v>
       </c>
       <c r="D29" s="3">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>108</v>
+        <v>122.25</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -1303,12 +1303,12 @@
         <v>40</v>
       </c>
       <c r="H29" s="3">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="23">
       <c r="A30" s="2">
-        <v>45625</v>
+        <v>45622</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>15</v>
@@ -1317,10 +1317,10 @@
         <v>9</v>
       </c>
       <c r="D30" s="3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E30" s="3">
-        <v>122.25</v>
+        <v>133.5</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>10</v>
@@ -1329,12 +1329,12 @@
         <v>40</v>
       </c>
       <c r="H30" s="3">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="23">
       <c r="A31" s="2">
-        <v>45622</v>
+        <v>45617</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>15</v>
@@ -1343,10 +1343,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E31" s="3">
-        <v>133.5</v>
+        <v>174</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>10</v>
@@ -1355,24 +1355,24 @@
         <v>40</v>
       </c>
       <c r="H31" s="3">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="23">
       <c r="A32" s="2">
-        <v>45617</v>
+        <v>45615</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="3">
-        <v>8</v>
-      </c>
-      <c r="E32" s="3">
-        <v>174</v>
+        <v>35</v>
+      </c>
+      <c r="E32" s="5">
+        <v>5925.25</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>10</v>
@@ -1381,7 +1381,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="3">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="23">
@@ -1389,22 +1389,22 @@
         <v>45615</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="3">
-        <v>35</v>
-      </c>
-      <c r="E33" s="5">
-        <v>5925.25</v>
+        <v>80</v>
+      </c>
+      <c r="E33" s="3">
+        <v>186</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="3">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="H33" s="3">
         <v>80</v>
@@ -1415,16 +1415,16 @@
         <v>45615</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D34" s="3">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="E34" s="3">
-        <v>186</v>
+        <v>14.5</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>10</v>
@@ -1433,12 +1433,12 @@
         <v>5</v>
       </c>
       <c r="H34" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="23">
       <c r="A35" s="2">
-        <v>45615</v>
+        <v>45611</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>16</v>
@@ -1447,10 +1447,10 @@
         <v>12</v>
       </c>
       <c r="D35" s="3">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E35" s="3">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>10</v>
@@ -1459,24 +1459,24 @@
         <v>5</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="23">
       <c r="A36" s="2">
-        <v>45611</v>
+        <v>45603</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="3">
-        <v>18</v>
-      </c>
-      <c r="E36" s="3">
-        <v>19.5</v>
+        <v>3</v>
+      </c>
+      <c r="E36" s="5">
+        <v>5994.25</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>10</v>
@@ -1485,12 +1485,12 @@
         <v>5</v>
       </c>
       <c r="H36" s="3">
-        <v>46</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="23">
       <c r="A37" s="2">
-        <v>45603</v>
+        <v>45602</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>14</v>
@@ -1499,16 +1499,16 @@
         <v>12</v>
       </c>
       <c r="D37" s="3">
-        <v>3</v>
-      </c>
-      <c r="E37" s="5">
-        <v>5994.25</v>
+        <v>6</v>
+      </c>
+      <c r="E37" s="7">
+        <v>5917</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H37" s="3">
         <v>64</v>
@@ -1516,25 +1516,25 @@
     </row>
     <row r="38" spans="1:8" ht="23">
       <c r="A38" s="2">
-        <v>45602</v>
+        <v>45601</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="3">
+        <v>12</v>
+      </c>
+      <c r="E38" s="3">
+        <v>53.5</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="3">
         <v>14</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="3">
-        <v>6</v>
-      </c>
-      <c r="E38" s="7">
-        <v>5917</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="3">
-        <v>8</v>
       </c>
       <c r="H38" s="3">
         <v>64</v>
@@ -1542,19 +1542,19 @@
     </row>
     <row r="39" spans="1:8" ht="23">
       <c r="A39" s="2">
-        <v>45601</v>
+        <v>45596</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>9</v>
+      <c r="C39" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D39" s="3">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E39" s="3">
-        <v>53.5</v>
+        <v>76.7</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>10</v>
@@ -1563,24 +1563,24 @@
         <v>14</v>
       </c>
       <c r="H39" s="3">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="23">
       <c r="A40" s="2">
-        <v>45596</v>
+        <v>45590</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="3">
-        <v>27</v>
-      </c>
-      <c r="E40" s="3">
-        <v>76.7</v>
+        <v>3</v>
+      </c>
+      <c r="E40" s="7">
+        <v>5890</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>10</v>
@@ -1589,30 +1589,30 @@
         <v>14</v>
       </c>
       <c r="H40" s="3">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="23">
       <c r="A41" s="2">
-        <v>45590</v>
+        <v>45589</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="3">
-        <v>3</v>
-      </c>
-      <c r="E41" s="7">
-        <v>5890</v>
+        <v>13</v>
+      </c>
+      <c r="E41" s="3">
+        <v>58.75</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H41" s="3">
         <v>79</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="42" spans="1:8" ht="23">
       <c r="A42" s="2">
-        <v>45589</v>
+        <v>45579</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="3">
-        <v>13</v>
-      </c>
-      <c r="E42" s="3">
-        <v>58.75</v>
+        <v>3</v>
+      </c>
+      <c r="E42" s="7">
+        <v>5900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -1641,30 +1641,30 @@
         <v>17</v>
       </c>
       <c r="H42" s="3">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="23">
       <c r="A43" s="2">
-        <v>45579</v>
+        <v>45576</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D43" s="3">
-        <v>3</v>
-      </c>
-      <c r="E43" s="7">
-        <v>5900</v>
+        <v>7</v>
+      </c>
+      <c r="E43" s="3">
+        <v>66</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H43" s="3">
         <v>92</v>
@@ -1672,7 +1672,7 @@
     </row>
     <row r="44" spans="1:8" ht="23">
       <c r="A44" s="2">
-        <v>45576</v>
+        <v>45574</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>16</v>
@@ -1681,10 +1681,10 @@
         <v>9</v>
       </c>
       <c r="D44" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44" s="3">
-        <v>66</v>
+        <v>73.75</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>10</v>
@@ -1693,12 +1693,12 @@
         <v>20</v>
       </c>
       <c r="H44" s="3">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="23">
       <c r="A45" s="2">
-        <v>45574</v>
+        <v>45573</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>16</v>
@@ -1707,10 +1707,10 @@
         <v>9</v>
       </c>
       <c r="D45" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45" s="3">
-        <v>73.75</v>
+        <v>84</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>10</v>
@@ -1719,24 +1719,24 @@
         <v>20</v>
       </c>
       <c r="H45" s="3">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="23">
       <c r="A46" s="2">
-        <v>45573</v>
+        <v>45566</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3">
         <v>16</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="3">
-        <v>9</v>
-      </c>
       <c r="E46" s="3">
-        <v>84</v>
+        <v>96.5</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>10</v>
@@ -1745,24 +1745,24 @@
         <v>20</v>
       </c>
       <c r="H46" s="3">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="23">
       <c r="A47" s="2">
-        <v>45566</v>
+        <v>45562</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D47" s="3">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E47" s="3">
-        <v>96.5</v>
+        <v>73.25</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -1771,12 +1771,12 @@
         <v>20</v>
       </c>
       <c r="H47" s="3">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="23">
       <c r="A48" s="2">
-        <v>45562</v>
+        <v>45554</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>16</v>
@@ -1788,7 +1788,7 @@
         <v>11</v>
       </c>
       <c r="E48" s="3">
-        <v>73.25</v>
+        <v>88.25</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>10</v>
@@ -1797,12 +1797,12 @@
         <v>20</v>
       </c>
       <c r="H48" s="3">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="23">
       <c r="A49" s="2">
-        <v>45554</v>
+        <v>45548</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>16</v>
@@ -1811,10 +1811,10 @@
         <v>9</v>
       </c>
       <c r="D49" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E49" s="3">
-        <v>88.25</v>
+        <v>108.25</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -1823,24 +1823,24 @@
         <v>20</v>
       </c>
       <c r="H49" s="3">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="23">
       <c r="A50" s="2">
-        <v>45548</v>
+        <v>45547</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="3">
-        <v>12</v>
-      </c>
-      <c r="E50" s="3">
-        <v>108.25</v>
+        <v>20</v>
+      </c>
+      <c r="E50" s="5">
+        <v>5624.5</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>10</v>
@@ -1849,7 +1849,7 @@
         <v>20</v>
       </c>
       <c r="H50" s="3">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="23">
@@ -1857,22 +1857,22 @@
         <v>45547</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="3">
-        <v>20</v>
-      </c>
-      <c r="E51" s="5">
-        <v>5624.5</v>
+        <v>50</v>
+      </c>
+      <c r="E51" s="3">
+        <v>134</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H51" s="3">
         <v>50</v>
@@ -1883,16 +1883,16 @@
         <v>45547</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D52" s="3">
-        <v>50</v>
-      </c>
-      <c r="E52" s="3">
-        <v>134</v>
+        <v>27</v>
+      </c>
+      <c r="E52" s="5">
+        <v>5567.69</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>10</v>
@@ -1901,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="23">
@@ -1909,22 +1909,22 @@
         <v>45547</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="3">
+        <v>40</v>
+      </c>
+      <c r="E53" s="3">
+        <v>30</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="3">
         <v>27</v>
-      </c>
-      <c r="E53" s="5">
-        <v>5567.69</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="54" spans="1:8" ht="23">
       <c r="A54" s="2">
-        <v>45547</v>
+        <v>45546</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>17</v>
@@ -1941,10 +1941,10 @@
         <v>12</v>
       </c>
       <c r="D54" s="3">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="E54" s="3">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>10</v>
@@ -1953,24 +1953,24 @@
         <v>27</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="23">
       <c r="A55" s="2">
-        <v>45546</v>
+        <v>45544</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>12</v>
+      <c r="C55" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D55" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55" s="3">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>10</v>
@@ -1979,24 +1979,24 @@
         <v>27</v>
       </c>
       <c r="H55" s="3">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="23">
       <c r="A56" s="2">
-        <v>45544</v>
+        <v>45541</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>9</v>
+      <c r="C56" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D56" s="3">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E56" s="3">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>10</v>
@@ -2005,12 +2005,12 @@
         <v>27</v>
       </c>
       <c r="H56" s="3">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="23">
       <c r="A57" s="2">
-        <v>45541</v>
+        <v>45540</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>17</v>
@@ -2019,10 +2019,10 @@
         <v>12</v>
       </c>
       <c r="D57" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E57" s="3">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>10</v>
@@ -2031,12 +2031,12 @@
         <v>27</v>
       </c>
       <c r="H57" s="3">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="23">
       <c r="A58" s="2">
-        <v>45540</v>
+        <v>45539</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>17</v>
@@ -2045,10 +2045,10 @@
         <v>12</v>
       </c>
       <c r="D58" s="3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E58" s="3">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -2057,24 +2057,24 @@
         <v>27</v>
       </c>
       <c r="H58" s="3">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="23">
       <c r="A59" s="2">
-        <v>45539</v>
+        <v>45538</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D59" s="3">
-        <v>14</v>
-      </c>
-      <c r="E59" s="3">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="E59" s="5">
+        <v>5574.5</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>10</v>
@@ -2083,30 +2083,30 @@
         <v>27</v>
       </c>
       <c r="H59" s="3">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="23">
       <c r="A60" s="2">
-        <v>45538</v>
+        <v>45533</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>9</v>
+      <c r="C60" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D60" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E60" s="5">
-        <v>5574.5</v>
+        <v>5651.75</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H60" s="3">
         <v>80</v>
@@ -2114,7 +2114,7 @@
     </row>
     <row r="61" spans="1:8" ht="23">
       <c r="A61" s="2">
-        <v>45533</v>
+        <v>45525</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>18</v>
@@ -2123,16 +2123,16 @@
         <v>12</v>
       </c>
       <c r="D61" s="3">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E61" s="5">
-        <v>5651.75</v>
+        <v>5632.8</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="3">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H61" s="3">
         <v>80</v>
@@ -2143,16 +2143,16 @@
         <v>45525</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D62" s="3">
-        <v>26</v>
-      </c>
-      <c r="E62" s="5">
-        <v>5632.8</v>
+        <v>73</v>
+      </c>
+      <c r="E62" s="3">
+        <v>43.12</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -2166,33 +2166,33 @@
     </row>
     <row r="63" spans="1:8" ht="23">
       <c r="A63" s="2">
-        <v>45525</v>
+        <v>45523</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>12</v>
+      <c r="C63" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D63" s="3">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="E63" s="3">
-        <v>43.12</v>
+        <v>46.5</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="3">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H63" s="3">
-        <v>80</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="23">
       <c r="A64" s="2">
-        <v>45523</v>
+        <v>45519</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>17</v>
@@ -2204,7 +2204,7 @@
         <v>33</v>
       </c>
       <c r="E64" s="3">
-        <v>46.5</v>
+        <v>67.5</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>10</v>
@@ -2213,24 +2213,24 @@
         <v>48</v>
       </c>
       <c r="H64" s="3">
-        <v>153</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="23">
       <c r="A65" s="2">
-        <v>45519</v>
+        <v>45518</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D65" s="3">
-        <v>33</v>
-      </c>
-      <c r="E65" s="3">
-        <v>67.5</v>
+        <v>7</v>
+      </c>
+      <c r="E65" s="5">
+        <v>5460</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>10</v>
@@ -2239,12 +2239,12 @@
         <v>48</v>
       </c>
       <c r="H65" s="3">
-        <v>120</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="23">
       <c r="A66" s="2">
-        <v>45518</v>
+        <v>45517</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>18</v>
@@ -2253,16 +2253,16 @@
         <v>12</v>
       </c>
       <c r="D66" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="5">
-        <v>5460</v>
+        <v>5409.5</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="3">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H66" s="3">
         <v>87</v>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="67" spans="1:8" ht="23">
       <c r="A67" s="2">
-        <v>45517</v>
+        <v>45510</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>18</v>
@@ -2279,16 +2279,16 @@
         <v>12</v>
       </c>
       <c r="D67" s="3">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E67" s="5">
-        <v>5409.5</v>
+        <v>5298.5</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="3">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H67" s="3">
         <v>87</v>
@@ -2296,25 +2296,25 @@
     </row>
     <row r="68" spans="1:8" ht="23">
       <c r="A68" s="2">
-        <v>45510</v>
+        <v>45509</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>12</v>
+      <c r="C68" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D68" s="3">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E68" s="5">
-        <v>5298.5</v>
+        <v>5203.7</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="3">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="H68" s="3">
         <v>87</v>
@@ -2322,25 +2322,25 @@
     </row>
     <row r="69" spans="1:8" ht="23">
       <c r="A69" s="2">
-        <v>45509</v>
+        <v>45506</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D69" s="3">
-        <v>18</v>
-      </c>
-      <c r="E69" s="5">
-        <v>5203.7</v>
+        <v>28</v>
+      </c>
+      <c r="E69" s="3">
+        <v>179.2</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="3">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H69" s="3">
         <v>87</v>
@@ -2348,19 +2348,19 @@
     </row>
     <row r="70" spans="1:8" ht="23">
       <c r="A70" s="2">
-        <v>45506</v>
+        <v>45505</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D70" s="3">
-        <v>28</v>
-      </c>
-      <c r="E70" s="3">
-        <v>179.2</v>
+        <v>7</v>
+      </c>
+      <c r="E70" s="5">
+        <v>5513.75</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>10</v>
@@ -2369,30 +2369,30 @@
         <v>54</v>
       </c>
       <c r="H70" s="3">
-        <v>87</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="23">
       <c r="A71" s="2">
-        <v>45505</v>
+        <v>45504</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="3">
-        <v>7</v>
-      </c>
-      <c r="E71" s="5">
-        <v>5513.75</v>
+        <v>30</v>
+      </c>
+      <c r="E71" s="3">
+        <v>89</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="3">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H71" s="3">
         <v>115</v>
@@ -2400,19 +2400,19 @@
     </row>
     <row r="72" spans="1:8" ht="23">
       <c r="A72" s="2">
-        <v>45504</v>
+        <v>45503</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>9</v>
+      <c r="C72" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D72" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E72" s="3">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -2421,12 +2421,12 @@
         <v>47</v>
       </c>
       <c r="H72" s="3">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="23">
       <c r="A73" s="2">
-        <v>45503</v>
+        <v>45497</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>17</v>
@@ -2435,10 +2435,10 @@
         <v>12</v>
       </c>
       <c r="D73" s="3">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E73" s="3">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>10</v>
@@ -2447,24 +2447,24 @@
         <v>47</v>
       </c>
       <c r="H73" s="3">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="23">
       <c r="A74" s="2">
-        <v>45497</v>
+        <v>45491</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D74" s="3">
-        <v>40</v>
-      </c>
-      <c r="E74" s="3">
-        <v>111</v>
+        <v>10</v>
+      </c>
+      <c r="E74" s="5">
+        <v>5603.75</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>10</v>
@@ -2473,30 +2473,30 @@
         <v>47</v>
       </c>
       <c r="H74" s="3">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="23">
       <c r="A75" s="2">
-        <v>45491</v>
+        <v>45484</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>9</v>
+      <c r="C75" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D75" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E75" s="5">
-        <v>5603.75</v>
+        <v>5657.25</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="3">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H75" s="3">
         <v>140</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="76" spans="1:8" ht="23">
       <c r="A76" s="2">
-        <v>45484</v>
+        <v>45481</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>18</v>
@@ -2516,13 +2516,13 @@
         <v>9</v>
       </c>
       <c r="E76" s="5">
-        <v>5657.25</v>
+        <v>5626.75</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="3">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H76" s="3">
         <v>140</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="77" spans="1:8" ht="23">
       <c r="A77" s="2">
-        <v>45481</v>
+        <v>45476</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>18</v>
@@ -2539,16 +2539,16 @@
         <v>12</v>
       </c>
       <c r="D77" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E77" s="5">
-        <v>5626.75</v>
+        <v>5576.25</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="3">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H77" s="3">
         <v>140</v>
@@ -2556,25 +2556,25 @@
     </row>
     <row r="78" spans="1:8" ht="23">
       <c r="A78" s="2">
-        <v>45476</v>
+        <v>45474</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>12</v>
+      <c r="C78" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D78" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E78" s="5">
-        <v>5576.25</v>
+        <v>5513</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="3">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="H78" s="3">
         <v>140</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="79" spans="1:8" ht="23">
       <c r="A79" s="2">
-        <v>45474</v>
+        <v>45471</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>18</v>
@@ -2591,16 +2591,16 @@
         <v>9</v>
       </c>
       <c r="D79" s="3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E79" s="5">
-        <v>5513</v>
+        <v>5556.75</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="3">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H79" s="3">
         <v>140</v>
@@ -2611,22 +2611,22 @@
         <v>45471</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="3">
-        <v>16</v>
-      </c>
-      <c r="E80" s="5">
-        <v>5556.75</v>
+        <v>40</v>
+      </c>
+      <c r="E80" s="3">
+        <v>96.5</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="3">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H80" s="3">
         <v>140</v>
@@ -2634,19 +2634,19 @@
     </row>
     <row r="81" spans="1:8" ht="23">
       <c r="A81" s="2">
-        <v>45471</v>
+        <v>45463</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="3">
-        <v>40</v>
-      </c>
-      <c r="E81" s="3">
-        <v>96.5</v>
+        <v>41</v>
+      </c>
+      <c r="E81" s="5">
+        <v>5567.64</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>10</v>
@@ -2655,7 +2655,7 @@
         <v>41</v>
       </c>
       <c r="H81" s="3">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="23">
@@ -2663,16 +2663,16 @@
         <v>45463</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="3">
-        <v>41</v>
-      </c>
-      <c r="E82" s="5">
-        <v>5567.64</v>
+        <v>100</v>
+      </c>
+      <c r="E82" s="3">
+        <v>103.82</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>10</v>
@@ -2689,25 +2689,25 @@
         <v>45463</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D83" s="3">
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>103.82</v>
+        <v>0.1</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="3">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="23">
@@ -2715,16 +2715,16 @@
         <v>45463</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="3">
-        <v>100</v>
-      </c>
-      <c r="E84" s="3">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E84" s="5">
+        <v>5494.5</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>10</v>
@@ -2733,12 +2733,12 @@
         <v>0</v>
       </c>
       <c r="H84" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="23">
       <c r="A85" s="2">
-        <v>45463</v>
+        <v>45455</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>20</v>
@@ -2747,16 +2747,16 @@
         <v>12</v>
       </c>
       <c r="D85" s="3">
+        <v>4</v>
+      </c>
+      <c r="E85" s="5">
+        <v>5445.5</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="3">
         <v>2</v>
-      </c>
-      <c r="E85" s="5">
-        <v>5494.5</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="3">
-        <v>0</v>
       </c>
       <c r="H85" s="3">
         <v>100</v>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="86" spans="1:8" ht="23">
       <c r="A86" s="2">
-        <v>45455</v>
+        <v>45449</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>20</v>
@@ -2776,13 +2776,13 @@
         <v>4</v>
       </c>
       <c r="E86" s="5">
-        <v>5445.5</v>
+        <v>5363.5</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H86" s="3">
         <v>100</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="87" spans="1:8" ht="23">
       <c r="A87" s="2">
-        <v>45449</v>
+        <v>45448</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>20</v>
@@ -2799,16 +2799,16 @@
         <v>12</v>
       </c>
       <c r="D87" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E87" s="5">
-        <v>5363.5</v>
+        <v>5329.5</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H87" s="3">
         <v>100</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="88" spans="1:8" ht="23">
       <c r="A88" s="2">
-        <v>45448</v>
+        <v>45446</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>20</v>
@@ -2825,16 +2825,16 @@
         <v>12</v>
       </c>
       <c r="D88" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E88" s="5">
-        <v>5329.5</v>
+        <v>5281.25</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="3">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="H88" s="3">
         <v>100</v>
@@ -2842,25 +2842,25 @@
     </row>
     <row r="89" spans="1:8" ht="23">
       <c r="A89" s="2">
-        <v>45446</v>
+        <v>45443</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>12</v>
+      <c r="C89" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D89" s="3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E89" s="5">
-        <v>5281.25</v>
+        <v>5231</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="3">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H89" s="3">
         <v>100</v>
@@ -2868,25 +2868,25 @@
     </row>
     <row r="90" spans="1:8" ht="23">
       <c r="A90" s="2">
-        <v>45443</v>
+        <v>45428</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>9</v>
+      <c r="C90" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D90" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E90" s="5">
-        <v>5231</v>
+        <v>5347.5</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="3">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H90" s="3">
         <v>100</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="91" spans="1:8" ht="23">
       <c r="A91" s="2">
-        <v>45428</v>
+        <v>45427</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>20</v>
@@ -2903,16 +2903,16 @@
         <v>12</v>
       </c>
       <c r="D91" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E91" s="5">
-        <v>5347.5</v>
+        <v>5306.75</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="3">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H91" s="3">
         <v>100</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="92" spans="1:8" ht="23">
       <c r="A92" s="2">
-        <v>45427</v>
+        <v>45422</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>20</v>
@@ -2929,16 +2929,16 @@
         <v>12</v>
       </c>
       <c r="D92" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E92" s="5">
-        <v>5306.75</v>
+        <v>5253.75</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H92" s="3">
         <v>100</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="93" spans="1:8" ht="23">
       <c r="A93" s="2">
-        <v>45422</v>
+        <v>45419</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>20</v>
@@ -2958,13 +2958,13 @@
         <v>6</v>
       </c>
       <c r="E93" s="5">
-        <v>5253.75</v>
+        <v>5222.25</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H93" s="3">
         <v>100</v>
@@ -2972,7 +2972,7 @@
     </row>
     <row r="94" spans="1:8" ht="23">
       <c r="A94" s="2">
-        <v>45419</v>
+        <v>45418</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>20</v>
@@ -2981,16 +2981,16 @@
         <v>12</v>
       </c>
       <c r="D94" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E94" s="5">
-        <v>5222.25</v>
+        <v>5184.25</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="3">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H94" s="3">
         <v>100</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="95" spans="1:8" ht="23">
       <c r="A95" s="2">
-        <v>45418</v>
+        <v>45415</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>20</v>
@@ -3007,16 +3007,16 @@
         <v>12</v>
       </c>
       <c r="D95" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E95" s="5">
-        <v>5184.25</v>
+        <v>5134.25</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="3">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H95" s="3">
         <v>100</v>
@@ -3024,25 +3024,25 @@
     </row>
     <row r="96" spans="1:8" ht="23">
       <c r="A96" s="2">
-        <v>45415</v>
+        <v>45413</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>12</v>
+      <c r="C96" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D96" s="3">
         <v>12</v>
       </c>
       <c r="E96" s="5">
-        <v>5134.25</v>
+        <v>5057.5</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="3">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="H96" s="3">
         <v>100</v>
@@ -3050,25 +3050,25 @@
     </row>
     <row r="97" spans="1:8" ht="23">
       <c r="A97" s="2">
-        <v>45413</v>
+        <v>45408</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>9</v>
+      <c r="C97" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D97" s="3">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E97" s="5">
-        <v>5057.5</v>
+        <v>5136</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="3">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="H97" s="3">
         <v>100</v>
@@ -3076,25 +3076,25 @@
     </row>
     <row r="98" spans="1:8" ht="23">
       <c r="A98" s="2">
-        <v>45408</v>
+        <v>45407</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>12</v>
+      <c r="C98" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D98" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E98" s="5">
-        <v>5136</v>
+        <v>5037.5</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="3">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="H98" s="3">
         <v>100</v>
@@ -3102,25 +3102,25 @@
     </row>
     <row r="99" spans="1:8" ht="23">
       <c r="A99" s="2">
-        <v>45407</v>
+        <v>45405</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>9</v>
+      <c r="C99" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D99" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E99" s="5">
-        <v>5037.5</v>
+        <v>5104.5</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="3">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H99" s="3">
         <v>100</v>
@@ -3128,25 +3128,25 @@
     </row>
     <row r="100" spans="1:8" ht="23">
       <c r="A100" s="2">
-        <v>45405</v>
+        <v>45404</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>12</v>
+      <c r="C100" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D100" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E100" s="5">
-        <v>5104.5</v>
+        <v>5012</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="3">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="101" spans="1:8" ht="23">
       <c r="A101" s="2">
-        <v>45404</v>
+        <v>45398</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>20</v>
@@ -3163,16 +3163,16 @@
         <v>9</v>
       </c>
       <c r="D101" s="3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E101" s="5">
-        <v>5012</v>
+        <v>5089</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="3">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
@@ -3180,7 +3180,7 @@
     </row>
     <row r="102" spans="1:8" ht="23">
       <c r="A102" s="2">
-        <v>45398</v>
+        <v>45394</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>20</v>
@@ -3189,16 +3189,16 @@
         <v>9</v>
       </c>
       <c r="D102" s="3">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E102" s="5">
-        <v>5089</v>
+        <v>5190</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="3">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
@@ -3209,22 +3209,22 @@
         <v>45394</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="3">
-        <v>7</v>
-      </c>
-      <c r="E103" s="5">
-        <v>5190</v>
+        <v>100</v>
+      </c>
+      <c r="E103" s="3">
+        <v>103.91</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="3">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H103" s="3">
         <v>100</v>
@@ -3235,16 +3235,16 @@
         <v>45394</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D104" s="3">
         <v>100</v>
       </c>
       <c r="E104" s="3">
-        <v>103.91</v>
+        <v>42.1</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>10</v>
@@ -3253,24 +3253,24 @@
         <v>34</v>
       </c>
       <c r="H104" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="23">
       <c r="A105" s="2">
-        <v>45394</v>
+        <v>45393</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D105" s="3">
-        <v>100</v>
-      </c>
-      <c r="E105" s="3">
-        <v>42.1</v>
+        <v>7</v>
+      </c>
+      <c r="E105" s="5">
+        <v>5193.5</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>10</v>
@@ -3279,12 +3279,12 @@
         <v>34</v>
       </c>
       <c r="H105" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="23">
       <c r="A106" s="2">
-        <v>45393</v>
+        <v>45387</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>20</v>
@@ -3293,16 +3293,16 @@
         <v>9</v>
       </c>
       <c r="D106" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E106" s="5">
-        <v>5193.5</v>
+        <v>5247</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="3">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H106" s="3">
         <v>100</v>
@@ -3310,25 +3310,25 @@
     </row>
     <row r="107" spans="1:8" ht="23">
       <c r="A107" s="2">
-        <v>45387</v>
+        <v>45386</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>9</v>
+      <c r="C107" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D107" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" s="5">
-        <v>5247</v>
+        <v>5299.5</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="3">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H107" s="3">
         <v>100</v>
@@ -3336,25 +3336,25 @@
     </row>
     <row r="108" spans="1:8" ht="23">
       <c r="A108" s="2">
-        <v>45386</v>
+        <v>45384</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>12</v>
+      <c r="C108" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D108" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E108" s="5">
-        <v>5299.5</v>
+        <v>5240</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="3">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H108" s="3">
         <v>100</v>
@@ -3362,25 +3362,25 @@
     </row>
     <row r="109" spans="1:8" ht="23">
       <c r="A109" s="2">
-        <v>45384</v>
+        <v>45372</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>9</v>
+      <c r="C109" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D109" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E109" s="5">
-        <v>5240</v>
+        <v>5318.5</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H109" s="3">
         <v>100</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="110" spans="1:8" ht="23">
       <c r="A110" s="2">
-        <v>45372</v>
+        <v>45370</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>20</v>
@@ -3397,16 +3397,16 @@
         <v>12</v>
       </c>
       <c r="D110" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E110" s="5">
-        <v>5318.5</v>
+        <v>5223</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="3">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H110" s="3">
         <v>100</v>
@@ -3414,25 +3414,25 @@
     </row>
     <row r="111" spans="1:8" ht="23">
       <c r="A111" s="2">
-        <v>45370</v>
+        <v>45366</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>12</v>
+      <c r="C111" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D111" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111" s="5">
-        <v>5223</v>
+        <v>5178.7</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="3">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H111" s="3">
         <v>100</v>
@@ -3440,25 +3440,25 @@
     </row>
     <row r="112" spans="1:8" ht="23">
       <c r="A112" s="2">
-        <v>45366</v>
+        <v>45363</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>9</v>
+      <c r="C112" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D112" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E112" s="5">
-        <v>5178.7</v>
+        <v>5181</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="3">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H112" s="3">
         <v>100</v>
@@ -3466,25 +3466,25 @@
     </row>
     <row r="113" spans="1:8" ht="23">
       <c r="A113" s="2">
-        <v>45363</v>
+        <v>45362</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>12</v>
+      <c r="C113" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D113" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E113" s="5">
-        <v>5181</v>
+        <v>5178.7</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="3">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H113" s="3">
         <v>100</v>
@@ -3492,25 +3492,25 @@
     </row>
     <row r="114" spans="1:8" ht="23">
       <c r="A114" s="2">
-        <v>45362</v>
+        <v>45359</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>9</v>
+      <c r="C114" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D114" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E114" s="5">
-        <v>5178.7</v>
+        <v>5250.5</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="3">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H114" s="3">
         <v>100</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="115" spans="1:8" ht="23">
       <c r="A115" s="2">
-        <v>45359</v>
+        <v>45357</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>20</v>
@@ -3527,16 +3527,16 @@
         <v>12</v>
       </c>
       <c r="D115" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E115" s="5">
-        <v>5250.5</v>
+        <v>5190</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="3">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H115" s="3">
         <v>100</v>
@@ -3544,25 +3544,25 @@
     </row>
     <row r="116" spans="1:8" ht="23">
       <c r="A116" s="2">
-        <v>45357</v>
+        <v>45356</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>12</v>
+      <c r="C116" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D116" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E116" s="5">
-        <v>5190</v>
+        <v>5155</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="3">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H116" s="3">
         <v>100</v>
@@ -3570,25 +3570,25 @@
     </row>
     <row r="117" spans="1:8" ht="23">
       <c r="A117" s="2">
-        <v>45356</v>
+        <v>45355</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>9</v>
+      <c r="C117" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D117" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E117" s="5">
-        <v>5155</v>
+        <v>5200.8999999999996</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="3">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H117" s="3">
         <v>100</v>
@@ -3596,25 +3596,25 @@
     </row>
     <row r="118" spans="1:8" ht="23">
       <c r="A118" s="2">
-        <v>45355</v>
+        <v>45345</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>12</v>
+      <c r="C118" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D118" s="3">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E118" s="5">
-        <v>5200.8999999999996</v>
+        <v>5166.3999999999996</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="3">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H118" s="3">
         <v>100</v>
@@ -3625,22 +3625,22 @@
         <v>45345</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D119" s="3">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E119" s="5">
-        <v>5166.3999999999996</v>
+        <v>5099</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="3">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="H119" s="3">
         <v>100</v>
@@ -3651,22 +3651,22 @@
         <v>45345</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D120" s="3">
-        <v>12</v>
-      </c>
-      <c r="E120" s="5">
-        <v>5099</v>
+        <v>100</v>
+      </c>
+      <c r="E120" s="3">
+        <v>85.75</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H120" s="3">
         <v>100</v>
@@ -3677,16 +3677,16 @@
         <v>45345</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D121" s="3">
         <v>100</v>
       </c>
       <c r="E121" s="3">
-        <v>85.75</v>
+        <v>8.26</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>10</v>
@@ -3695,24 +3695,24 @@
         <v>12</v>
       </c>
       <c r="H121" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="23">
       <c r="A122" s="2">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D122" s="3">
-        <v>100</v>
-      </c>
-      <c r="E122" s="3">
-        <v>8.26</v>
+        <v>15</v>
+      </c>
+      <c r="E122" s="5">
+        <v>5070.25</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>10</v>
@@ -3721,30 +3721,30 @@
         <v>12</v>
       </c>
       <c r="H122" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="23">
       <c r="A123" s="2">
-        <v>45344</v>
+        <v>45342</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>12</v>
+      <c r="C123" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D123" s="3">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E123" s="5">
-        <v>5070.25</v>
+        <v>4977.75</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="3">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H123" s="3">
         <v>100</v>
@@ -3752,25 +3752,25 @@
     </row>
     <row r="124" spans="1:8" ht="23">
       <c r="A124" s="2">
-        <v>45342</v>
+        <v>45337</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>9</v>
+      <c r="C124" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D124" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E124" s="5">
-        <v>4977.75</v>
+        <v>5024.25</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="3">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H124" s="3">
         <v>100</v>
@@ -3778,25 +3778,25 @@
     </row>
     <row r="125" spans="1:8" ht="23">
       <c r="A125" s="2">
-        <v>45337</v>
+        <v>45335</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>12</v>
+      <c r="C125" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D125" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E125" s="5">
-        <v>5024.25</v>
+        <v>4980.75</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H125" s="3">
         <v>100</v>
@@ -3804,25 +3804,25 @@
     </row>
     <row r="126" spans="1:8" ht="23">
       <c r="A126" s="2">
-        <v>45335</v>
+        <v>45334</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>9</v>
+      <c r="C126" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D126" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E126" s="5">
-        <v>4980.75</v>
+        <v>5052</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="3">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H126" s="3">
         <v>100</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="127" spans="1:8" ht="23">
       <c r="A127" s="2">
-        <v>45334</v>
+        <v>45330</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>11</v>
@@ -3839,16 +3839,16 @@
         <v>12</v>
       </c>
       <c r="D127" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E127" s="5">
-        <v>5052</v>
+        <v>5013.25</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="3">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H127" s="3">
         <v>100</v>
@@ -3856,7 +3856,7 @@
     </row>
     <row r="128" spans="1:8" ht="23">
       <c r="A128" s="2">
-        <v>45330</v>
+        <v>45324</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>11</v>
@@ -3868,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="E128" s="5">
-        <v>5013.25</v>
+        <v>4957.5</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="3">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H128" s="3">
         <v>100</v>
@@ -3882,25 +3882,25 @@
     </row>
     <row r="129" spans="1:8" ht="23">
       <c r="A129" s="2">
-        <v>45324</v>
+        <v>45322</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>12</v>
+      <c r="C129" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D129" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E129" s="5">
-        <v>4957.5</v>
+        <v>4907</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="3">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H129" s="3">
         <v>100</v>
@@ -3908,25 +3908,25 @@
     </row>
     <row r="130" spans="1:8" ht="23">
       <c r="A130" s="2">
-        <v>45322</v>
+        <v>45321</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>9</v>
+      <c r="C130" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D130" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E130" s="5">
-        <v>4907</v>
+        <v>4947.25</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="3">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H130" s="3">
         <v>100</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="131" spans="1:8" ht="23">
       <c r="A131" s="2">
-        <v>45321</v>
+        <v>45315</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>11</v>
@@ -3943,16 +3943,16 @@
         <v>12</v>
       </c>
       <c r="D131" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E131" s="5">
-        <v>4947.25</v>
+        <v>4925.75</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="3">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H131" s="3">
         <v>100</v>
@@ -3960,25 +3960,25 @@
     </row>
     <row r="132" spans="1:8" ht="23">
       <c r="A132" s="2">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D132" s="3">
-        <v>10</v>
-      </c>
-      <c r="E132" s="5">
-        <v>4925.75</v>
+        <v>100</v>
+      </c>
+      <c r="E132" s="3">
+        <v>79</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H132" s="3">
         <v>100</v>
@@ -3989,16 +3989,16 @@
         <v>45314</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D133" s="3">
         <v>100</v>
       </c>
       <c r="E133" s="3">
-        <v>79</v>
+        <v>2.75</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>10</v>
@@ -4007,7 +4007,7 @@
         <v>50</v>
       </c>
       <c r="H133" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="23">
@@ -4015,16 +4015,16 @@
         <v>45314</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D134" s="3">
-        <v>100</v>
-      </c>
-      <c r="E134" s="3">
-        <v>2.75</v>
+        <v>43</v>
+      </c>
+      <c r="E134" s="5">
+        <v>4876.25</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>10</v>
@@ -4033,30 +4033,30 @@
         <v>50</v>
       </c>
       <c r="H134" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="23">
       <c r="A135" s="2">
-        <v>45314</v>
+        <v>45313</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>9</v>
+      <c r="C135" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D135" s="3">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E135" s="5">
-        <v>4876.25</v>
+        <v>4880.5</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="3">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="H135" s="3">
         <v>100</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="136" spans="1:8" ht="23">
       <c r="A136" s="2">
-        <v>45313</v>
+        <v>45310</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>11</v>
@@ -4073,16 +4073,16 @@
         <v>12</v>
       </c>
       <c r="D136" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E136" s="5">
-        <v>4880.5</v>
+        <v>4831</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H136" s="3">
         <v>100</v>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="137" spans="1:8" ht="23">
       <c r="A137" s="2">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>11</v>
@@ -4099,16 +4099,16 @@
         <v>12</v>
       </c>
       <c r="D137" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E137" s="5">
-        <v>4831</v>
+        <v>4792.5</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H137" s="3">
         <v>100</v>
@@ -4116,25 +4116,25 @@
     </row>
     <row r="138" spans="1:8" ht="23">
       <c r="A138" s="2">
-        <v>45309</v>
+        <v>45308</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>12</v>
+      <c r="C138" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D138" s="3">
         <v>8</v>
       </c>
       <c r="E138" s="5">
-        <v>4792.5</v>
+        <v>4772.25</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="3">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H138" s="3">
         <v>100</v>
@@ -4142,25 +4142,25 @@
     </row>
     <row r="139" spans="1:8" ht="23">
       <c r="A139" s="2">
-        <v>45308</v>
+        <v>45301</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>9</v>
+      <c r="C139" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D139" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E139" s="5">
-        <v>4772.25</v>
+        <v>4797.6000000000004</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="3">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H139" s="3">
         <v>100</v>
@@ -4168,25 +4168,25 @@
     </row>
     <row r="140" spans="1:8" ht="23">
       <c r="A140" s="2">
-        <v>45301</v>
+        <v>45294</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>12</v>
+      <c r="C140" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D140" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E140" s="5">
-        <v>4797.6000000000004</v>
+        <v>4756</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="3">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="H140" s="3">
         <v>100</v>
@@ -4194,25 +4194,25 @@
     </row>
     <row r="141" spans="1:8" ht="23">
       <c r="A141" s="2">
-        <v>45294</v>
+        <v>45282</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>9</v>
+      <c r="C141" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D141" s="3">
         <v>10</v>
       </c>
       <c r="E141" s="5">
-        <v>4756</v>
+        <v>4808.75</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H141" s="3">
         <v>100</v>
@@ -4220,25 +4220,25 @@
     </row>
     <row r="142" spans="1:8" ht="23">
       <c r="A142" s="2">
-        <v>45282</v>
+        <v>45281</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>12</v>
+      <c r="C142" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D142" s="3">
         <v>10</v>
       </c>
       <c r="E142" s="5">
-        <v>4808.75</v>
+        <v>4764</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="3">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H142" s="3">
         <v>100</v>
@@ -4246,25 +4246,25 @@
     </row>
     <row r="143" spans="1:8" ht="23">
       <c r="A143" s="2">
-        <v>45281</v>
+        <v>45279</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>9</v>
+      <c r="C143" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D143" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E143" s="5">
-        <v>4764</v>
+        <v>4813.5</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="3">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H143" s="3">
         <v>100</v>
@@ -4272,25 +4272,25 @@
     </row>
     <row r="144" spans="1:8" ht="23">
       <c r="A144" s="2">
-        <v>45279</v>
+        <v>45274</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>12</v>
+      <c r="C144" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D144" s="3">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E144" s="5">
-        <v>4813.5</v>
+        <v>4777.75</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="3">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H144" s="3">
         <v>100</v>
@@ -4301,22 +4301,22 @@
         <v>45274</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D145" s="3">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E145" s="5">
-        <v>4777.75</v>
+        <v>4721.8500000000004</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H145" s="3">
         <v>100</v>
@@ -4324,7 +4324,7 @@
     </row>
     <row r="146" spans="1:8" ht="23">
       <c r="A146" s="2">
-        <v>45274</v>
+        <v>45271</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>14</v>
@@ -4333,16 +4333,16 @@
         <v>12</v>
       </c>
       <c r="D146" s="3">
+        <v>10</v>
+      </c>
+      <c r="E146" s="5">
+        <v>4609.25</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="3">
         <v>60</v>
-      </c>
-      <c r="E146" s="5">
-        <v>4721.8500000000004</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
       </c>
       <c r="H146" s="3">
         <v>100</v>
@@ -4350,25 +4350,25 @@
     </row>
     <row r="147" spans="1:8" ht="23">
       <c r="A147" s="2">
-        <v>45271</v>
+        <v>45260</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" s="6" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D147" s="3">
-        <v>10</v>
-      </c>
-      <c r="E147" s="5">
-        <v>4609.25</v>
+        <v>100</v>
+      </c>
+      <c r="E147" s="3">
+        <v>149.08000000000001</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H147" s="3">
         <v>100</v>
@@ -4379,16 +4379,16 @@
         <v>45260</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="C148" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D148" s="3">
         <v>100</v>
       </c>
       <c r="E148" s="3">
-        <v>149.08000000000001</v>
+        <v>46.02</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>10</v>
@@ -4397,24 +4397,24 @@
         <v>70</v>
       </c>
       <c r="H148" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="23">
       <c r="A149" s="2">
-        <v>45260</v>
+        <v>45252</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D149" s="3">
-        <v>100</v>
-      </c>
-      <c r="E149" s="3">
-        <v>46.02</v>
+        <v>15</v>
+      </c>
+      <c r="E149" s="5">
+        <v>4571.5</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>10</v>
@@ -4423,30 +4423,30 @@
         <v>70</v>
       </c>
       <c r="H149" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="23">
       <c r="A150" s="2">
-        <v>45252</v>
+        <v>45246</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>12</v>
+      <c r="C150" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D150" s="3">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="E150" s="5">
-        <v>4571.5</v>
+        <v>4507.33</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="3">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H150" s="3">
         <v>100</v>
@@ -4457,22 +4457,22 @@
         <v>45246</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="3">
-        <v>85</v>
-      </c>
-      <c r="E151" s="5">
-        <v>4507.33</v>
+        <v>95</v>
+      </c>
+      <c r="E151" s="3">
+        <v>100.94</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="3">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H151" s="3">
         <v>100</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="152" spans="1:8" ht="23">
       <c r="A152" s="2">
-        <v>45246</v>
+        <v>45244</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>24</v>
@@ -4489,10 +4489,10 @@
         <v>9</v>
       </c>
       <c r="D152" s="3">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="E152" s="3">
-        <v>100.94</v>
+        <v>100.4</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>10</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="H152" s="3">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="23">
@@ -4509,16 +4509,16 @@
         <v>45244</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D153" s="3">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E153" s="3">
-        <v>100.4</v>
+        <v>6.4</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>10</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="H153" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="23">
@@ -4535,16 +4535,16 @@
         <v>45244</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D154" s="3">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="E154" s="3">
-        <v>6.4</v>
+        <v>4518.25</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>10</v>
@@ -4553,12 +4553,12 @@
         <v>0</v>
       </c>
       <c r="H154" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="23">
       <c r="A155" s="2">
-        <v>45244</v>
+        <v>45243</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>14</v>
@@ -4567,16 +4567,16 @@
         <v>12</v>
       </c>
       <c r="D155" s="3">
+        <v>7</v>
+      </c>
+      <c r="E155" s="5">
+        <v>4421.75</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="3">
         <v>21</v>
-      </c>
-      <c r="E155" s="3">
-        <v>4518.25</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="3">
-        <v>0</v>
       </c>
       <c r="H155" s="3">
         <v>100</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="156" spans="1:8" ht="23">
       <c r="A156" s="2">
-        <v>45243</v>
+        <v>45237</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>14</v>
@@ -4593,16 +4593,16 @@
         <v>12</v>
       </c>
       <c r="D156" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E156" s="5">
-        <v>4421.75</v>
+        <v>4396</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="3">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H156" s="3">
         <v>100</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="157" spans="1:8" ht="23">
       <c r="A157" s="2">
-        <v>45237</v>
+        <v>45233</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>14</v>
@@ -4619,16 +4619,16 @@
         <v>12</v>
       </c>
       <c r="D157" s="3">
-        <v>5</v>
-      </c>
-      <c r="E157" s="5">
-        <v>4396</v>
+        <v>13</v>
+      </c>
+      <c r="E157" s="3">
+        <v>4380.75</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="3">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H157" s="3">
         <v>100</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="158" spans="1:8" ht="23">
       <c r="A158" s="2">
-        <v>45233</v>
+        <v>45232</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>14</v>
@@ -4645,16 +4645,16 @@
         <v>12</v>
       </c>
       <c r="D158" s="3">
-        <v>13</v>
-      </c>
-      <c r="E158" s="3">
-        <v>4380.75</v>
+        <v>19</v>
+      </c>
+      <c r="E158" s="7">
+        <v>4316</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="3">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H158" s="3">
         <v>100</v>
@@ -4662,7 +4662,7 @@
     </row>
     <row r="159" spans="1:8" ht="23">
       <c r="A159" s="2">
-        <v>45232</v>
+        <v>45231</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>14</v>
@@ -4671,16 +4671,16 @@
         <v>12</v>
       </c>
       <c r="D159" s="3">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E159" s="7">
-        <v>4316</v>
+        <v>4223</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="3">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H159" s="3">
         <v>100</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="160" spans="1:8" ht="23">
       <c r="A160" s="2">
-        <v>45231</v>
+        <v>45225</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>14</v>
@@ -4697,16 +4697,16 @@
         <v>12</v>
       </c>
       <c r="D160" s="3">
-        <v>5</v>
-      </c>
-      <c r="E160" s="7">
-        <v>4223</v>
+        <v>57</v>
+      </c>
+      <c r="E160" s="5">
+        <v>4177.63</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="3">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H160" s="3">
         <v>100</v>
@@ -4717,22 +4717,22 @@
         <v>45225</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>12</v>
+        <v>25</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D161" s="3">
-        <v>57</v>
-      </c>
-      <c r="E161" s="5">
-        <v>4177.63</v>
+        <v>100</v>
+      </c>
+      <c r="E161" s="3">
+        <v>164.82</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="3">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="H161" s="3">
         <v>100</v>
@@ -4743,16 +4743,16 @@
         <v>45225</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>9</v>
+        <v>26</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D162" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E162" s="3">
-        <v>164.82</v>
+        <v>349.99</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>10</v>
@@ -4761,7 +4761,7 @@
         <v>127</v>
       </c>
       <c r="H162" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="23">
@@ -4769,16 +4769,16 @@
         <v>45225</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D163" s="3">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="E163" s="3">
-        <v>349.99</v>
+        <v>222</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>10</v>
@@ -4787,24 +4787,24 @@
         <v>127</v>
       </c>
       <c r="H163" s="3">
-        <v>0</v>
+        <v>101</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="23">
       <c r="A164" s="2">
-        <v>45225</v>
+        <v>45219</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D164" s="3">
-        <v>30</v>
-      </c>
-      <c r="E164" s="3">
-        <v>222</v>
+        <v>11</v>
+      </c>
+      <c r="E164" s="5">
+        <v>4264.5</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>10</v>
@@ -4813,12 +4813,12 @@
         <v>127</v>
       </c>
       <c r="H164" s="3">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="23">
       <c r="A165" s="2">
-        <v>45219</v>
+        <v>45217</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>14</v>
@@ -4827,16 +4827,16 @@
         <v>9</v>
       </c>
       <c r="D165" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E165" s="5">
-        <v>4264.5</v>
+        <v>4371.8999999999996</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="3">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H165" s="3">
         <v>131</v>
@@ -4844,25 +4844,25 @@
     </row>
     <row r="166" spans="1:8" ht="23">
       <c r="A166" s="2">
-        <v>45217</v>
+        <v>45216</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>9</v>
+      <c r="C166" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D166" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E166" s="5">
-        <v>4371.8999999999996</v>
+        <v>4416.75</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="3">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="H166" s="3">
         <v>131</v>
@@ -4870,25 +4870,25 @@
     </row>
     <row r="167" spans="1:8" ht="23">
       <c r="A167" s="2">
-        <v>45216</v>
+        <v>45212</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>12</v>
+      <c r="C167" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D167" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E167" s="5">
-        <v>4416.75</v>
+        <v>4369</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="3">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="H167" s="3">
         <v>131</v>
@@ -4896,25 +4896,25 @@
     </row>
     <row r="168" spans="1:8" ht="23">
       <c r="A168" s="2">
-        <v>45212</v>
+        <v>45209</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>9</v>
+      <c r="C168" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D168" s="3">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E168" s="5">
-        <v>4369</v>
+        <v>4399.5</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G168" s="3">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H168" s="3">
         <v>131</v>
@@ -4922,25 +4922,25 @@
     </row>
     <row r="169" spans="1:8" ht="23">
       <c r="A169" s="2">
-        <v>45209</v>
+        <v>45205</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>12</v>
+      <c r="C169" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D169" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E169" s="5">
-        <v>4399.5</v>
+        <v>4323.75</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G169" s="3">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H169" s="3">
         <v>131</v>
@@ -4951,22 +4951,22 @@
         <v>45205</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="3">
-        <v>24</v>
-      </c>
-      <c r="E170" s="5">
-        <v>4323.75</v>
+        <v>30</v>
+      </c>
+      <c r="E170" s="3">
+        <v>147</v>
       </c>
       <c r="F170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="3">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="H170" s="3">
         <v>131</v>
@@ -4974,19 +4974,19 @@
     </row>
     <row r="171" spans="1:8" ht="23">
       <c r="A171" s="2">
-        <v>45205</v>
+        <v>45202</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="3">
-        <v>30</v>
-      </c>
-      <c r="E171" s="3">
-        <v>147</v>
+        <v>4</v>
+      </c>
+      <c r="E171" s="5">
+        <v>4266.25</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>10</v>
@@ -4995,12 +4995,12 @@
         <v>97</v>
       </c>
       <c r="H171" s="3">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="23">
       <c r="A172" s="2">
-        <v>45202</v>
+        <v>45201</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>14</v>
@@ -5009,16 +5009,16 @@
         <v>9</v>
       </c>
       <c r="D172" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E172" s="5">
-        <v>4266.25</v>
+        <v>4317.25</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G172" s="3">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H172" s="3">
         <v>101</v>
@@ -5026,25 +5026,25 @@
     </row>
     <row r="173" spans="1:8" ht="23">
       <c r="A173" s="2">
-        <v>45201</v>
+        <v>45197</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>9</v>
+      <c r="C173" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D173" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E173" s="5">
-        <v>4317.25</v>
+        <v>4347.5</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G173" s="3">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H173" s="3">
         <v>101</v>
@@ -5052,25 +5052,25 @@
     </row>
     <row r="174" spans="1:8" ht="23">
       <c r="A174" s="2">
-        <v>45197</v>
+        <v>45196</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>12</v>
+      <c r="C174" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D174" s="3">
         <v>4</v>
       </c>
       <c r="E174" s="5">
-        <v>4347.5</v>
+        <v>4306</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H174" s="3">
         <v>101</v>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="175" spans="1:8" ht="23">
       <c r="A175" s="2">
-        <v>45196</v>
+        <v>45195</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>14</v>
@@ -5087,16 +5087,16 @@
         <v>9</v>
       </c>
       <c r="D175" s="3">
-        <v>4</v>
-      </c>
-      <c r="E175" s="5">
-        <v>4306</v>
+        <v>8</v>
+      </c>
+      <c r="E175" s="7">
+        <v>4344</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G175" s="3">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H175" s="3">
         <v>101</v>
@@ -5104,25 +5104,25 @@
     </row>
     <row r="176" spans="1:8" ht="23">
       <c r="A176" s="2">
-        <v>45195</v>
+        <v>45191</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>9</v>
+      <c r="C176" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D176" s="3">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E176" s="7">
-        <v>4344</v>
+        <v>4398</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="3">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H176" s="3">
         <v>101</v>
@@ -5133,22 +5133,22 @@
         <v>45191</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D177" s="3">
-        <v>19</v>
-      </c>
-      <c r="E177" s="7">
-        <v>4398</v>
+        <v>101</v>
+      </c>
+      <c r="E177" s="3">
+        <v>166</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G177" s="3">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="H177" s="3">
         <v>101</v>
@@ -5159,16 +5159,16 @@
         <v>45191</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D178" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E178" s="3">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>10</v>
@@ -5177,24 +5177,24 @@
         <v>99</v>
       </c>
       <c r="H178" s="3">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="23">
       <c r="A179" s="2">
-        <v>45191</v>
+        <v>45190</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D179" s="3">
-        <v>100</v>
-      </c>
-      <c r="E179" s="3">
-        <v>207</v>
+        <v>4</v>
+      </c>
+      <c r="E179" s="5">
+        <v>4400.5</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>10</v>
@@ -5203,12 +5203,12 @@
         <v>99</v>
       </c>
       <c r="H179" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="23">
       <c r="A180" s="2">
-        <v>45190</v>
+        <v>45188</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>14</v>
@@ -5217,16 +5217,16 @@
         <v>9</v>
       </c>
       <c r="D180" s="3">
-        <v>4</v>
-      </c>
-      <c r="E180" s="5">
-        <v>4400.5</v>
+        <v>10</v>
+      </c>
+      <c r="E180" s="7">
+        <v>4470</v>
       </c>
       <c r="F180" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G180" s="3">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H180" s="3">
         <v>100</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="181" spans="1:8" ht="23">
       <c r="A181" s="2">
-        <v>45188</v>
+        <v>45184</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>14</v>
@@ -5243,16 +5243,16 @@
         <v>9</v>
       </c>
       <c r="D181" s="3">
-        <v>10</v>
-      </c>
-      <c r="E181" s="7">
-        <v>4470</v>
+        <v>14</v>
+      </c>
+      <c r="E181" s="5">
+        <v>4509.5</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="3">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H181" s="3">
         <v>100</v>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="182" spans="1:8" ht="23">
       <c r="A182" s="2">
-        <v>45184</v>
+        <v>45183</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>14</v>
@@ -5269,16 +5269,16 @@
         <v>9</v>
       </c>
       <c r="D182" s="3">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="E182" s="5">
-        <v>4509.5</v>
+        <v>4548.25</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="3">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H182" s="3">
         <v>100</v>
@@ -5289,22 +5289,22 @@
         <v>45183</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D183" s="3">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E183" s="5">
-        <v>4548.25</v>
+        <v>4496.1000000000004</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="3">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="H183" s="3">
         <v>100</v>
@@ -5312,25 +5312,25 @@
     </row>
     <row r="184" spans="1:8" ht="23">
       <c r="A184" s="2">
-        <v>45183</v>
+        <v>45176</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C184" s="6" t="s">
-        <v>12</v>
+      <c r="C184" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D184" s="3">
+        <v>23</v>
+      </c>
+      <c r="E184" s="5">
+        <v>4449.5</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="3">
         <v>80</v>
-      </c>
-      <c r="E184" s="5">
-        <v>4496.1000000000004</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="3">
-        <v>0</v>
       </c>
       <c r="H184" s="3">
         <v>100</v>
@@ -5338,25 +5338,25 @@
     </row>
     <row r="185" spans="1:8" ht="23">
       <c r="A185" s="2">
-        <v>45176</v>
+        <v>45168</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>9</v>
+      <c r="C185" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D185" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E185" s="5">
-        <v>4449.5</v>
+        <v>4523.5</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="3">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="H185" s="3">
         <v>100</v>
@@ -5364,7 +5364,7 @@
     </row>
     <row r="186" spans="1:8" ht="23">
       <c r="A186" s="2">
-        <v>45168</v>
+        <v>45167</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>18</v>
@@ -5373,16 +5373,16 @@
         <v>12</v>
       </c>
       <c r="D186" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E186" s="5">
-        <v>4523.5</v>
+        <v>4476</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="3">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H186" s="3">
         <v>100</v>
@@ -5390,25 +5390,25 @@
     </row>
     <row r="187" spans="1:8" ht="23">
       <c r="A187" s="2">
-        <v>45167</v>
+        <v>45166</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>12</v>
+        <v>31</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D187" s="3">
-        <v>11</v>
-      </c>
-      <c r="E187" s="5">
-        <v>4476</v>
+        <v>100</v>
+      </c>
+      <c r="E187" s="3">
+        <v>141</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="3">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H187" s="3">
         <v>100</v>
@@ -5419,16 +5419,16 @@
         <v>45166</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D188" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E188" s="3">
-        <v>141</v>
+        <v>319</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>10</v>
@@ -5437,24 +5437,24 @@
         <v>80</v>
       </c>
       <c r="H188" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="23">
       <c r="A189" s="2">
-        <v>45166</v>
+        <v>45162</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="D189" s="3">
-        <v>80</v>
-      </c>
-      <c r="E189" s="3">
-        <v>319</v>
+        <v>1</v>
+      </c>
+      <c r="E189" s="5">
+        <v>4408.5</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>10</v>
@@ -5463,12 +5463,12 @@
         <v>80</v>
       </c>
       <c r="H189" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="23">
       <c r="A190" s="2">
-        <v>45162</v>
+        <v>45154</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>18</v>
@@ -5477,16 +5477,16 @@
         <v>9</v>
       </c>
       <c r="D190" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E190" s="5">
-        <v>4408.5</v>
+        <v>4452.75</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G190" s="3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H190" s="3">
         <v>80</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="191" spans="1:8" ht="23">
       <c r="A191" s="2">
-        <v>45154</v>
+        <v>45146</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>18</v>
@@ -5503,16 +5503,16 @@
         <v>9</v>
       </c>
       <c r="D191" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E191" s="5">
-        <v>4452.75</v>
+        <v>4487.75</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G191" s="3">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H191" s="3">
         <v>80</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="192" spans="1:8" ht="23">
       <c r="A192" s="2">
-        <v>45146</v>
+        <v>45140</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>18</v>
@@ -5529,16 +5529,16 @@
         <v>9</v>
       </c>
       <c r="D192" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E192" s="5">
-        <v>4487.75</v>
+        <v>4544</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="3">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H192" s="3">
         <v>80</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="193" spans="1:8" ht="23">
       <c r="A193" s="2">
-        <v>45140</v>
+        <v>45138</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>18</v>
@@ -5555,16 +5555,16 @@
         <v>9</v>
       </c>
       <c r="D193" s="3">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="E193" s="5">
-        <v>4544</v>
+        <v>4609.8</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G193" s="3">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H193" s="3">
         <v>80</v>
@@ -5575,50 +5575,24 @@
         <v>45138</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="3">
-        <v>64</v>
-      </c>
-      <c r="E194" s="5">
-        <v>4609.8</v>
+        <v>80</v>
+      </c>
+      <c r="E194" s="3">
+        <v>160</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G194" s="3">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="H194" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="23">
-      <c r="A195" s="2">
-        <v>45138</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="3">
-        <v>80</v>
-      </c>
-      <c r="E195" s="3">
-        <v>160</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="3">
-        <v>0</v>
-      </c>
-      <c r="H195" s="3">
         <v>80</v>
       </c>
     </row>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA754BD1-6ED5-B944-AD3E-5049F3E4129E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FDA43-BDBF-604E-B852-3F0470F28D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="31840" windowHeight="21220" activeTab="2" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="31840" windowHeight="21220" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="36">
   <si>
     <t>DATA</t>
   </si>
@@ -586,11 +586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF9FDCF-EF68-8E4F-B932-D74FD0632ABD}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5650,6 +5650,32 @@
         <v>48</v>
       </c>
     </row>
+    <row r="195" spans="1:8" ht="44" customHeight="1">
+      <c r="A195" s="5">
+        <v>45698</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="6">
+        <v>12</v>
+      </c>
+      <c r="E195" s="6">
+        <v>84</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="6">
+        <v>19</v>
+      </c>
+      <c r="H195" s="6">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5660,8 +5686,8 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C2"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7347,9 +7373,15 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="23">
-      <c r="A153" s="2"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="A153" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B153" s="3">
+        <v>68000</v>
+      </c>
+      <c r="C153" s="3">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="23">
       <c r="A154" s="2"/>
@@ -7395,9 +7427,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -9082,7 +9114,15 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="40" customHeight="1">
-      <c r="A153" s="2"/>
+      <c r="A153" s="2">
+        <v>45698</v>
+      </c>
+      <c r="B153" s="1">
+        <v>68</v>
+      </c>
+      <c r="C153" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="154" spans="1:3" ht="40" customHeight="1">
       <c r="A154" s="2"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52FDA43-BDBF-604E-B852-3F0470F28D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D08F7AA-7B0B-FD45-94F1-43454F454701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="500" windowWidth="31840" windowHeight="21220" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
+    <workbookView xWindow="1440" yWindow="500" windowWidth="31840" windowHeight="21220" activeTab="2" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="36">
   <si>
     <t>DATA</t>
   </si>
@@ -586,11 +586,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EF9FDCF-EF68-8E4F-B932-D74FD0632ABD}">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E212" sqref="E212"/>
+      <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5650,32 +5650,6 @@
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="44" customHeight="1">
-      <c r="A195" s="5">
-        <v>45698</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="6">
-        <v>12</v>
-      </c>
-      <c r="E195" s="6">
-        <v>84</v>
-      </c>
-      <c r="F195" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="6">
-        <v>19</v>
-      </c>
-      <c r="H195" s="6">
-        <v>48</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5683,11 +5657,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D1AE83-71FF-D646-9DA6-2F2BACDC27FF}">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+      <selection pane="bottomLeft" activeCell="A153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7373,15 +7347,9 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="23">
-      <c r="A153" s="2">
-        <v>45698</v>
-      </c>
-      <c r="B153" s="3">
-        <v>68000</v>
-      </c>
-      <c r="C153" s="3">
-        <v>15.8</v>
-      </c>
+      <c r="A153" s="2"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" ht="23">
       <c r="A154" s="2"/>
@@ -7412,11 +7380,6 @@
       <c r="A159" s="2"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-    </row>
-    <row r="160" spans="1:3" ht="23">
-      <c r="A160" s="2"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7425,11 +7388,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E960FF-368A-3E44-924C-861BEDCA6476}">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C156" sqref="C156"/>
+      <selection pane="bottomLeft" activeCell="A153" sqref="A153:XFD153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -9114,15 +9077,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" ht="40" customHeight="1">
-      <c r="A153" s="2">
-        <v>45698</v>
-      </c>
-      <c r="B153" s="1">
-        <v>68</v>
-      </c>
-      <c r="C153" s="1">
-        <v>32</v>
-      </c>
+      <c r="A153" s="2"/>
     </row>
     <row r="154" spans="1:3" ht="40" customHeight="1">
       <c r="A154" s="2"/>
@@ -9141,9 +9096,6 @@
     </row>
     <row r="159" spans="1:3" ht="40" customHeight="1">
       <c r="A159" s="2"/>
-    </row>
-    <row r="160" spans="1:3" ht="40" customHeight="1">
-      <c r="A160" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferrars/Desktop/test/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D08F7AA-7B0B-FD45-94F1-43454F454701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0982DC-8D9F-434D-91BE-3DA039F598DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="500" windowWidth="31840" windowHeight="21220" activeTab="2" xr2:uid="{F1546C66-1100-0F4C-AEC5-783BC2578DB8}"/>
   </bookViews>
@@ -589,7 +589,7 @@
   <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A195" sqref="A195:XFD195"/>
     </sheetView>
   </sheetViews>
